--- a/m50,m40,m60 Pnp/Rev 1.4/BOM-speeduino v0.4.3 compatible PCB for m50tu rev1.4.xlsx
+++ b/m50,m40,m60 Pnp/Rev 1.4/BOM-speeduino v0.4.3 compatible PCB for m50tu rev1.4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kemppain\Documents\GitHub\Speeduino-M5x-PCBs\m50,m40,m60 Pnp\Rev 1.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A917DC5E-36F3-4930-887A-10C998F72417}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F17C2B-9195-4519-ABEA-4D07C7564B50}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="3900" windowWidth="23655" windowHeight="14430" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6450" yWindow="735" windowWidth="31680" windowHeight="13380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Component List" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <author>Josh Stewart</author>
   </authors>
   <commentList>
-    <comment ref="L25" authorId="0" shapeId="0" xr:uid="{7FFFB373-E6A5-4403-BE33-9CF9531F6B58}">
+    <comment ref="L26" authorId="0" shapeId="0" xr:uid="{7FFFB373-E6A5-4403-BE33-9CF9531F6B58}">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L26" authorId="0" shapeId="0" xr:uid="{4DD7F66A-F41E-4AB0-8342-D446DD090DB8}">
+    <comment ref="L27" authorId="0" shapeId="0" xr:uid="{4DD7F66A-F41E-4AB0-8342-D446DD090DB8}">
       <text>
         <r>
           <rPr>
@@ -88,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D35" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D36" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -112,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L44" authorId="0" shapeId="0" xr:uid="{2B0A136D-4BD2-48D6-8AFA-04F734AF97EE}">
+    <comment ref="L45" authorId="0" shapeId="0" xr:uid="{2B0A136D-4BD2-48D6-8AFA-04F734AF97EE}">
       <text>
         <r>
           <rPr>
@@ -136,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L45" authorId="0" shapeId="0" xr:uid="{28360D0E-7F45-4AF0-962F-D9CF7003B50F}">
+    <comment ref="L46" authorId="0" shapeId="0" xr:uid="{28360D0E-7F45-4AF0-962F-D9CF7003B50F}">
       <text>
         <r>
           <rPr>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="320">
   <si>
     <t>Value</t>
   </si>
@@ -1001,9 +1001,6 @@
   </si>
   <si>
     <t>R1,R3,R26,R28,R33,R61</t>
-  </si>
-  <si>
-    <t>C23,C25</t>
   </si>
   <si>
     <t>External connector</t>
@@ -1313,6 +1310,24 @@
       <t>R64</t>
     </r>
   </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>1nF</t>
+  </si>
+  <si>
+    <t>CAP CER 1000PF 50V 10% RADIAL</t>
+  </si>
+  <si>
+    <t>SR211C102KARTR1</t>
+  </si>
+  <si>
+    <t>478-11030-1-ND</t>
+  </si>
+  <si>
+    <t>581-SR211C102KARTR1</t>
+  </si>
 </sst>
 </file>
 
@@ -1321,7 +1336,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1444,6 +1459,12 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1622,7 +1643,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1738,6 +1759,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2134,10 +2158,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X63"/>
+  <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="113" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2251,7 +2275,7 @@
       <c r="R2" s="3"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4" t="str">
-        <f t="shared" ref="T2:T19" si="0">IF(NOT(M2=""),A2&amp;","&amp;M2,"")</f>
+        <f t="shared" ref="T2:T20" si="0">IF(NOT(M2=""),A2&amp;","&amp;M2,"")</f>
         <v/>
       </c>
       <c r="U2" s="4" t="str">
@@ -2269,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18">
-        <f t="shared" ref="B3:B10" si="1">LEN(D3)-LEN(SUBSTITUTE(D3,",",""))+1</f>
+        <f t="shared" ref="B3:B11" si="1">LEN(D3)-LEN(SUBSTITUTE(D3,",",""))+1</f>
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -2313,7 +2337,7 @@
         <v>1.7</v>
       </c>
       <c r="Q3" s="6">
-        <f t="shared" ref="Q3:Q10" si="2">O3*A3</f>
+        <f t="shared" ref="Q3:Q11" si="2">O3*A3</f>
         <v>1.7</v>
       </c>
       <c r="R3" s="6">
@@ -2326,7 +2350,7 @@
         <v>1,399-3654-ND</v>
       </c>
       <c r="U3" s="4" t="str">
-        <f t="shared" ref="U3:U19" si="3">IF(NOT(M3=""),B3&amp;","&amp;M3,"")</f>
+        <f t="shared" ref="U3:U20" si="3">IF(NOT(M3=""),B3&amp;","&amp;M3,"")</f>
         <v>1,399-3654-ND</v>
       </c>
       <c r="V3" t="str">
@@ -2334,11 +2358,11 @@
         <v>Capacitor - 1x 10uF</v>
       </c>
       <c r="W3" t="str">
-        <f t="shared" ref="W3:W19" si="4">IF(NOT(N3=""),N3&amp;"|"&amp;A3,"")</f>
+        <f t="shared" ref="W3:W20" si="4">IF(NOT(N3=""),N3&amp;"|"&amp;A3,"")</f>
         <v>80-T356G106K035AT|1</v>
       </c>
       <c r="X3" t="str">
-        <f t="shared" ref="X3:X19" si="5">L3&amp;" "&amp;A3</f>
+        <f t="shared" ref="X3:X20" si="5">L3&amp;" "&amp;A3</f>
         <v>T356G106K035AT 1</v>
       </c>
     </row>
@@ -2396,7 +2420,7 @@
         <v>3.3000000000000003</v>
       </c>
       <c r="R4" s="6">
-        <f t="shared" ref="R4:R30" si="6">P4*A4</f>
+        <f t="shared" ref="R4:R31" si="6">P4*A4</f>
         <v>3.3000000000000003</v>
       </c>
       <c r="S4" s="4"/>
@@ -2409,7 +2433,7 @@
         <v>6,BC2678CT-ND</v>
       </c>
       <c r="V4" t="str">
-        <f t="shared" ref="V4:V10" si="7">"Capacitor - " &amp;A4&amp;"x "&amp;E4</f>
+        <f t="shared" ref="V4:V11" si="7">"Capacitor - " &amp;A4&amp;"x "&amp;E4</f>
         <v>Capacitor - 5x 0.22uF</v>
       </c>
       <c r="W4" t="str">
@@ -2581,7 +2605,7 @@
     </row>
     <row r="7" spans="1:24" ht="16.5" thickBot="1">
       <c r="A7" s="18">
-        <f t="shared" ref="A7:A9" si="8">LEN(C7)-LEN(SUBSTITUTE(C7,",",""))+1</f>
+        <f t="shared" ref="A7:A10" si="8">LEN(C7)-LEN(SUBSTITUTE(C7,",",""))+1</f>
         <v>2</v>
       </c>
       <c r="B7" s="18">
@@ -2668,7 +2692,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>193</v>
@@ -2818,24 +2842,19 @@
     </row>
     <row r="10" spans="1:24" ht="16.5" thickBot="1">
       <c r="A10" s="18">
-        <f>LEN(C10)-LEN(SUBSTITUTE(C10,",",""))+1</f>
-        <v>2</v>
-      </c>
-      <c r="B10" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
+      <c r="B10" s="18"/>
       <c r="C10" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>91</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="D10" s="22"/>
       <c r="E10" s="3" t="s">
-        <v>92</v>
+        <v>315</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>95</v>
+        <v>316</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>12</v>
@@ -2843,660 +2862,658 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>138</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
-        <v>94</v>
+        <v>317</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>160</v>
+        <v>318</v>
+      </c>
+      <c r="N10" s="40" t="s">
+        <v>319</v>
       </c>
       <c r="O10" s="5">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="P10" s="5">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="Q10" s="6">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="R10" s="6">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>0.13</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2,399-4243-ND</v>
+        <v>1,478-11030-1-ND</v>
       </c>
       <c r="U10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>1,399-4243-ND</v>
+        <v>,478-11030-1-ND</v>
       </c>
       <c r="V10" t="str">
         <f t="shared" si="7"/>
-        <v>Capacitor - 2x 4.7nF</v>
+        <v>Capacitor - 1x 1nF</v>
       </c>
       <c r="W10" t="str">
         <f t="shared" si="4"/>
-        <v>80-C317C472K1R|2</v>
+        <v>581-SR211C102KARTR1|1</v>
       </c>
       <c r="X10" t="str">
         <f t="shared" si="5"/>
-        <v>C317C472K1R5TA 2</v>
+        <v>SR211C102KARTR1 1</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="16.5" thickBot="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="A11" s="18">
+        <f>LEN(C11)-LEN(SUBSTITUTE(C11,",",""))+1</f>
+        <v>1</v>
+      </c>
+      <c r="B11" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="6"/>
+      <c r="J11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="Q11" s="6">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="R11" s="6">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1,399-4243-ND</v>
       </c>
       <c r="U11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1,399-4243-ND</v>
+      </c>
+      <c r="V11" t="str">
+        <f t="shared" si="7"/>
+        <v>Capacitor - 1x 4.7nF</v>
       </c>
       <c r="W11" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>80-C317C472K1R|1</v>
       </c>
       <c r="X11" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v>C317C472K1R5TA 1</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="16.5" thickBot="1">
-      <c r="A12" s="18">
-        <f>LEN(C12)-LEN(SUBSTITUTE(C12,",",""))+1</f>
-        <v>2</v>
-      </c>
-      <c r="B12" s="18">
-        <f t="shared" ref="B12:B15" si="9">LEN(D12)-LEN(SUBSTITUTE(D12,",",""))+1</f>
-        <v>1</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="O12" s="5">
-        <v>0.34</v>
-      </c>
-      <c r="P12" s="5">
-        <v>0.43</v>
-      </c>
-      <c r="Q12" s="6">
-        <f>O12*A12</f>
-        <v>0.68</v>
-      </c>
-      <c r="R12" s="6">
-        <f t="shared" si="6"/>
-        <v>0.86</v>
-      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="6"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2,1N5919BGOS-ND</v>
+        <v/>
       </c>
       <c r="U12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>1,1N5919BGOS-ND</v>
-      </c>
-      <c r="V12" t="str">
-        <f>"Diode - " &amp;A12&amp;"x "&amp;E12</f>
-        <v>Diode - 2x 1N5919BG Zener</v>
+        <v/>
       </c>
       <c r="W12" t="str">
         <f t="shared" si="4"/>
-        <v>863-1N5919BRLG|2</v>
+        <v/>
       </c>
       <c r="X12" t="str">
         <f t="shared" si="5"/>
-        <v>1N5919BG 2</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="26.25" thickBot="1">
+    <row r="13" spans="1:24" ht="16.5" thickBot="1">
       <c r="A13" s="18">
         <f>LEN(C13)-LEN(SUBSTITUTE(C13,",",""))+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="18">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" ref="B13:B16" si="9">LEN(D13)-LEN(SUBSTITUTE(D13,",",""))+1</f>
+        <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>25</v>
+        <v>100</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>24</v>
+        <v>138</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="O13" s="5">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="P13" s="5">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
       <c r="Q13" s="6">
         <f>O13*A13</f>
-        <v>1.17</v>
+        <v>0.68</v>
       </c>
       <c r="R13" s="6">
         <f t="shared" si="6"/>
-        <v>1.17</v>
+        <v>0.86</v>
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>3,1N5818-TPCT-ND</v>
+        <v>2,1N5919BGOS-ND</v>
       </c>
       <c r="U13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>2,1N5818-TPCT-ND</v>
+        <v>1,1N5919BGOS-ND</v>
       </c>
       <c r="V13" t="str">
-        <f t="shared" ref="V13:V15" si="10">"Diode - " &amp;A13&amp;"x "&amp;E13</f>
-        <v>Diode - 3x 1N5818-TP Schottky</v>
+        <f>"Diode - " &amp;A13&amp;"x "&amp;E13</f>
+        <v>Diode - 2x 1N5919BG Zener</v>
       </c>
       <c r="W13" t="str">
         <f t="shared" si="4"/>
-        <v>833-1N5818-TP|3</v>
+        <v>863-1N5919BRLG|2</v>
       </c>
       <c r="X13" t="str">
         <f t="shared" si="5"/>
-        <v>1N5818-TP 3</v>
+        <v>1N5919BG 2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="16.5" thickBot="1">
+    <row r="14" spans="1:24" ht="26.25" thickBot="1">
       <c r="A14" s="18">
         <f>LEN(C14)-LEN(SUBSTITUTE(C14,",",""))+1</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B14" s="18">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>109</v>
+        <v>286</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="I14" s="3">
+        <v>18</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="K14" s="3" t="s">
         <v>139</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>185</v>
+        <v>24</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="O14" s="5">
-        <v>0.47</v>
+        <v>0.39</v>
       </c>
       <c r="P14" s="5">
-        <v>0.1</v>
+        <v>0.39</v>
       </c>
       <c r="Q14" s="6">
         <f>O14*A14</f>
-        <v>2.82</v>
+        <v>1.17</v>
       </c>
       <c r="R14" s="6">
         <f t="shared" si="6"/>
-        <v>0.60000000000000009</v>
+        <v>1.17</v>
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>6,160-1139-ND</v>
+        <v>3,1N5818-TPCT-ND</v>
       </c>
       <c r="U14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>4,160-1139-ND</v>
+        <v>2,1N5818-TPCT-ND</v>
       </c>
       <c r="V14" t="str">
-        <f t="shared" si="10"/>
-        <v>Diode - 6x LED-Red</v>
+        <f t="shared" ref="V14:V16" si="10">"Diode - " &amp;A14&amp;"x "&amp;E14</f>
+        <v>Diode - 3x 1N5818-TP Schottky</v>
       </c>
       <c r="W14" t="str">
         <f t="shared" si="4"/>
-        <v>859-LTL-4221N|6</v>
+        <v>833-1N5818-TP|3</v>
       </c>
       <c r="X14" t="str">
         <f t="shared" si="5"/>
-        <v>LTL-4221N 6</v>
+        <v>1N5818-TP 3</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="26.25" thickBot="1">
+    <row r="15" spans="1:24" ht="16.5" thickBot="1">
       <c r="A15" s="18">
         <f>LEN(C15)-LEN(SUBSTITUTE(C15,",",""))+1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" s="18">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>283</v>
+        <v>210</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="3">
-        <v>13</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="O15" s="5">
-        <v>0.11</v>
+        <v>0.47</v>
       </c>
       <c r="P15" s="5">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="Q15" s="6">
         <f>O15*A15</f>
-        <v>0.55000000000000004</v>
+        <v>2.82</v>
       </c>
       <c r="R15" s="6">
         <f t="shared" si="6"/>
-        <v>0.55000000000000004</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>5,1N4004-TPMSCT-ND</v>
+        <v>6,160-1139-ND</v>
       </c>
       <c r="U15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>2,1N4004-TPMSCT-ND</v>
+        <v>4,160-1139-ND</v>
       </c>
       <c r="V15" t="str">
         <f t="shared" si="10"/>
-        <v>Diode - 5x 1N4004</v>
+        <v>Diode - 6x LED-Red</v>
       </c>
       <c r="W15" t="str">
         <f t="shared" si="4"/>
-        <v>833-1N4004-TP|5</v>
+        <v>859-LTL-4221N|6</v>
       </c>
       <c r="X15" t="str">
         <f t="shared" si="5"/>
-        <v>1N4004-TP 5</v>
+        <v>LTL-4221N 6</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="16.5" thickBot="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+    <row r="16" spans="1:24" ht="26.25" thickBot="1">
+      <c r="A16" s="18">
+        <f>LEN(C16)-LEN(SUBSTITUTE(C16,",",""))+1</f>
+        <v>5</v>
+      </c>
+      <c r="B16" s="18">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="6"/>
+      <c r="I16" s="3">
+        <v>13</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="Q16" s="6">
+        <f>O16*A16</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R16" s="6">
+        <f t="shared" si="6"/>
+        <v>0.55000000000000004</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>5,1N4004-TPMSCT-ND</v>
       </c>
       <c r="U16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2,1N4004-TPMSCT-ND</v>
       </c>
       <c r="V16" t="str">
-        <f>A16&amp;"x "&amp;E16</f>
-        <v xml:space="preserve">x </v>
+        <f t="shared" si="10"/>
+        <v>Diode - 5x 1N4004</v>
       </c>
       <c r="W16" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>833-1N4004-TP|5</v>
       </c>
       <c r="X16" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v>1N4004-TP 5</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="16.5" thickBot="1">
-      <c r="A17" s="18">
-        <v>1</v>
-      </c>
-      <c r="B17" s="18">
-        <f t="shared" ref="B17" si="11">LEN(D17)-LEN(SUBSTITUTE(D17,",",""))+1</f>
-        <v>1</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3">
-        <v>1</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="O17" s="5">
-        <v>0.72</v>
-      </c>
-      <c r="P17" s="5">
-        <v>0.72</v>
-      </c>
-      <c r="Q17" s="6">
-        <f>O17*A17</f>
-        <v>0.72</v>
-      </c>
-      <c r="R17" s="6">
-        <f t="shared" si="6"/>
-        <v>0.72</v>
-      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="6"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>1,P7307-ND</v>
+        <v/>
       </c>
       <c r="U17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>1,P7307-ND</v>
+        <v/>
       </c>
       <c r="V17" t="str">
         <f>A17&amp;"x "&amp;E17</f>
-        <v>1x Surge Protection</v>
+        <v xml:space="preserve">x </v>
       </c>
       <c r="W17" t="str">
         <f t="shared" si="4"/>
-        <v>667-ERZ-V14D220|1</v>
+        <v/>
       </c>
       <c r="X17" t="str">
         <f t="shared" si="5"/>
-        <v>ERZ-V14D220 1</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="16.5" thickBot="1">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="A18" s="18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="18">
+        <f t="shared" ref="B18" si="11">LEN(D18)-LEN(SUBSTITUTE(D18,",",""))+1</f>
+        <v>1</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="6"/>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="Q18" s="6">
+        <f>O18*A18</f>
+        <v>0.72</v>
+      </c>
+      <c r="R18" s="6">
+        <f t="shared" si="6"/>
+        <v>0.72</v>
+      </c>
       <c r="S18" s="4"/>
       <c r="T18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1,P7307-ND</v>
       </c>
       <c r="U18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1,P7307-ND</v>
       </c>
       <c r="V18" t="str">
         <f>A18&amp;"x "&amp;E18</f>
-        <v xml:space="preserve">x </v>
+        <v>1x Surge Protection</v>
       </c>
       <c r="W18" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>667-ERZ-V14D220|1</v>
       </c>
       <c r="X18" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v>ERZ-V14D220 1</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="26.25" thickBot="1">
-      <c r="A19" s="18">
-        <v>4</v>
-      </c>
-      <c r="B19" s="18">
-        <v>4</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>90</v>
-      </c>
+    <row r="19" spans="1:24" ht="16.5" thickBot="1">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3">
-        <v>1</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="O19" s="6">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="P19" s="24">
-        <v>2.95</v>
-      </c>
-      <c r="Q19" s="6">
-        <f>O19*A19</f>
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="R19" s="6">
-        <f t="shared" si="6"/>
-        <v>11.8</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>173</v>
-      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="4"/>
       <c r="T19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>4,S1012EC-40-ND</v>
+        <v/>
       </c>
       <c r="U19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>4,S1012EC-40-ND</v>
+        <v/>
       </c>
       <c r="V19" t="str">
         <f>A19&amp;"x "&amp;E19</f>
-        <v>4x 40 POS 0.100 Pin Header</v>
+        <v xml:space="preserve">x </v>
       </c>
       <c r="W19" t="str">
         <f t="shared" si="4"/>
-        <v>571-41037410|4</v>
+        <v/>
       </c>
       <c r="X19" t="str">
         <f t="shared" si="5"/>
-        <v>PREC040SAAN-RC.. 4</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="16.5" thickBot="1">
+    <row r="20" spans="1:24" ht="26.25" thickBot="1">
       <c r="A20" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B20" s="18">
         <v>4</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>82</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>261</v>
+        <v>96</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>262</v>
+        <v>90</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -3504,54 +3521,56 @@
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>225</v>
+        <v>89</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L20" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="M20" s="30" t="s">
-        <v>260</v>
+      <c r="L20" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>259</v>
+        <v>206</v>
       </c>
       <c r="O20" s="6">
-        <v>1</v>
-      </c>
-      <c r="P20" s="28">
-        <v>0.88200000000000001</v>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="P20" s="24">
+        <v>2.95</v>
       </c>
       <c r="Q20" s="6">
         <f>O20*A20</f>
-        <v>1</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="R20" s="6">
-        <f t="shared" ref="R20:R21" si="12">P20*A20</f>
-        <v>0.88200000000000001</v>
-      </c>
-      <c r="S20" s="4"/>
+        <f t="shared" si="6"/>
+        <v>11.8</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="T20" s="4" t="str">
-        <f t="shared" ref="T20:T21" si="13">IF(NOT(M20=""),A20&amp;","&amp;M20,"")</f>
-        <v>1,WM1353-ND</v>
+        <f t="shared" si="0"/>
+        <v>4,S1012EC-40-ND</v>
       </c>
       <c r="U20" s="4" t="str">
-        <f t="shared" ref="U20:U21" si="14">IF(NOT(M20=""),B20&amp;","&amp;M20,"")</f>
-        <v>4,WM1353-ND</v>
+        <f t="shared" si="3"/>
+        <v>4,S1012EC-40-ND</v>
       </c>
       <c r="V20" t="str">
-        <f t="shared" ref="V20:V21" si="15">A20&amp;"x "&amp;E20</f>
-        <v>1x 6 POS Header</v>
+        <f>A20&amp;"x "&amp;E20</f>
+        <v>4x 40 POS 0.100 Pin Header</v>
       </c>
       <c r="W20" t="str">
-        <f t="shared" ref="W20:W21" si="16">IF(NOT(N20=""),N20&amp;"|"&amp;A20,"")</f>
-        <v>538-39-30-1060|1</v>
+        <f t="shared" si="4"/>
+        <v>571-41037410|4</v>
       </c>
       <c r="X20" t="str">
-        <f t="shared" ref="X20:X21" si="17">L20&amp;" "&amp;A20</f>
-        <v>39-30-1060 1</v>
+        <f t="shared" si="5"/>
+        <v>PREC040SAAN-RC.. 4</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="16.5" thickBot="1">
@@ -3561,17 +3580,17 @@
       <c r="B21" s="18">
         <v>4</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="4" t="s">
         <v>223</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>82</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>305</v>
+        <v>262</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -3585,48 +3604,48 @@
         <v>139</v>
       </c>
       <c r="L21" s="27" t="s">
-        <v>306</v>
+        <v>258</v>
       </c>
       <c r="M21" s="30" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="O21" s="6">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="P21" s="28">
-        <v>0.89100000000000001</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="Q21" s="6">
         <f>O21*A21</f>
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="R21" s="6">
-        <f t="shared" si="12"/>
-        <v>0.89100000000000001</v>
+        <f t="shared" ref="R21:R22" si="12">P21*A21</f>
+        <v>0.88200000000000001</v>
       </c>
       <c r="S21" s="4"/>
       <c r="T21" s="4" t="str">
-        <f t="shared" si="13"/>
-        <v>1,WM21352-ND</v>
+        <f t="shared" ref="T21:T22" si="13">IF(NOT(M21=""),A21&amp;","&amp;M21,"")</f>
+        <v>1,WM1353-ND</v>
       </c>
       <c r="U21" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>4,WM21352-ND</v>
+        <f t="shared" ref="U21:U22" si="14">IF(NOT(M21=""),B21&amp;","&amp;M21,"")</f>
+        <v>4,WM1353-ND</v>
       </c>
       <c r="V21" t="str">
-        <f t="shared" si="15"/>
-        <v>1x 4 POS Header</v>
+        <f t="shared" ref="V21:V22" si="15">A21&amp;"x "&amp;E21</f>
+        <v>1x 6 POS Header</v>
       </c>
       <c r="W21" t="str">
-        <f t="shared" si="16"/>
-        <v>538-39-30-0040|1</v>
+        <f t="shared" ref="W21:W22" si="16">IF(NOT(N21=""),N21&amp;"|"&amp;A21,"")</f>
+        <v>538-39-30-1060|1</v>
       </c>
       <c r="X21" t="str">
-        <f t="shared" si="17"/>
-        <v>39-30-0040 1</v>
+        <f t="shared" ref="X21:X22" si="17">L21&amp;" "&amp;A21</f>
+        <v>39-30-1060 1</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="16.5" thickBot="1">
@@ -3636,8 +3655,8 @@
       <c r="B22" s="18">
         <v>4</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>234</v>
+      <c r="C22" s="35" t="s">
+        <v>223</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>82</v>
@@ -3646,7 +3665,7 @@
         <v>224</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>236</v>
+        <v>304</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -3654,54 +3673,54 @@
         <v>1</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>139</v>
       </c>
       <c r="L22" s="27" t="s">
-        <v>239</v>
+        <v>305</v>
       </c>
       <c r="M22" s="30" t="s">
-        <v>244</v>
+        <v>306</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>243</v>
+        <v>307</v>
       </c>
       <c r="O22" s="6">
-        <v>0.38</v>
+        <v>1.01</v>
       </c>
       <c r="P22" s="28">
-        <v>0.76</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="Q22" s="6">
         <f>O22*A22</f>
-        <v>0.38</v>
+        <v>1.01</v>
       </c>
       <c r="R22" s="6">
-        <f t="shared" ref="R22:R23" si="18">P22*A22</f>
-        <v>0.76</v>
+        <f t="shared" si="12"/>
+        <v>0.89100000000000001</v>
       </c>
       <c r="S22" s="4"/>
       <c r="T22" s="4" t="str">
-        <f t="shared" ref="T22:T23" si="19">IF(NOT(M22=""),A22&amp;","&amp;M22,"")</f>
-        <v>1,SAM1213-04-ND</v>
+        <f t="shared" si="13"/>
+        <v>1,WM21352-ND</v>
       </c>
       <c r="U22" s="4" t="str">
-        <f t="shared" ref="U22:U23" si="20">IF(NOT(M22=""),B22&amp;","&amp;M22,"")</f>
-        <v>4,SAM1213-04-ND</v>
+        <f t="shared" si="14"/>
+        <v>4,WM21352-ND</v>
       </c>
       <c r="V22" t="str">
-        <f t="shared" ref="V22:V23" si="21">A22&amp;"x "&amp;E22</f>
+        <f t="shared" si="15"/>
         <v>1x 4 POS Header</v>
       </c>
       <c r="W22" t="str">
-        <f t="shared" ref="W22:W23" si="22">IF(NOT(N22=""),N22&amp;"|"&amp;A22,"")</f>
-        <v>200-SSW10401TS|1</v>
+        <f t="shared" si="16"/>
+        <v>538-39-30-0040|1</v>
       </c>
       <c r="X22" t="str">
-        <f t="shared" ref="X22:X23" si="23">L22&amp;" "&amp;A22</f>
-        <v>SSW-104-01-T-S 1</v>
+        <f t="shared" si="17"/>
+        <v>39-30-0040 1</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="16.5" thickBot="1">
@@ -3718,10 +3737,10 @@
         <v>82</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -3735,273 +3754,268 @@
         <v>139</v>
       </c>
       <c r="L23" s="27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M23" s="30" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O23" s="6">
-        <v>0.23</v>
+        <v>0.38</v>
       </c>
       <c r="P23" s="28">
-        <v>0.49</v>
+        <v>0.76</v>
       </c>
       <c r="Q23" s="6">
         <f>O23*A23</f>
+        <v>0.38</v>
+      </c>
+      <c r="R23" s="6">
+        <f t="shared" ref="R23:R24" si="18">P23*A23</f>
+        <v>0.76</v>
+      </c>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4" t="str">
+        <f t="shared" ref="T23:T24" si="19">IF(NOT(M23=""),A23&amp;","&amp;M23,"")</f>
+        <v>1,SAM1213-04-ND</v>
+      </c>
+      <c r="U23" s="4" t="str">
+        <f t="shared" ref="U23:U24" si="20">IF(NOT(M23=""),B23&amp;","&amp;M23,"")</f>
+        <v>4,SAM1213-04-ND</v>
+      </c>
+      <c r="V23" t="str">
+        <f t="shared" ref="V23:V24" si="21">A23&amp;"x "&amp;E23</f>
+        <v>1x 4 POS Header</v>
+      </c>
+      <c r="W23" t="str">
+        <f t="shared" ref="W23:W24" si="22">IF(NOT(N23=""),N23&amp;"|"&amp;A23,"")</f>
+        <v>200-SSW10401TS|1</v>
+      </c>
+      <c r="X23" t="str">
+        <f t="shared" ref="X23:X24" si="23">L23&amp;" "&amp;A23</f>
+        <v>SSW-104-01-T-S 1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="16.5" thickBot="1">
+      <c r="A24" s="18">
+        <v>1</v>
+      </c>
+      <c r="B24" s="18">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L24" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="M24" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="O24" s="6">
         <v>0.23</v>
       </c>
-      <c r="R23" s="6">
+      <c r="P24" s="28">
+        <v>0.49</v>
+      </c>
+      <c r="Q24" s="6">
+        <f>O24*A24</f>
+        <v>0.23</v>
+      </c>
+      <c r="R24" s="6">
         <f t="shared" si="18"/>
         <v>0.49</v>
       </c>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4" t="str">
+      <c r="S24" s="4"/>
+      <c r="T24" s="4" t="str">
         <f t="shared" si="19"/>
         <v>1,SAM1213-02-ND</v>
       </c>
-      <c r="U23" s="4" t="str">
+      <c r="U24" s="4" t="str">
         <f t="shared" si="20"/>
         <v>4,SAM1213-02-ND</v>
       </c>
-      <c r="V23" t="str">
+      <c r="V24" t="str">
         <f t="shared" si="21"/>
         <v>1x 2 POS Header</v>
       </c>
-      <c r="W23" t="str">
+      <c r="W24" t="str">
         <f t="shared" si="22"/>
         <v>200-SSW10201TS|1</v>
       </c>
-      <c r="X23" t="str">
+      <c r="X24" t="str">
         <f t="shared" si="23"/>
         <v>SSW-102-01-T-S 1</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="16.5" thickBot="1">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4" t="str">
-        <f t="shared" ref="T24:T30" si="24">IF(NOT(M24=""),A24&amp;","&amp;M24,"")</f>
-        <v/>
-      </c>
-      <c r="U24" s="4" t="str">
-        <f t="shared" ref="U24:U38" si="25">IF(NOT(M24=""),B24&amp;","&amp;M24,"")</f>
-        <v/>
-      </c>
-      <c r="V24" t="str">
-        <f>A24&amp;"x "&amp;E24</f>
-        <v xml:space="preserve">x </v>
-      </c>
-      <c r="W24" t="str">
-        <f>IF(NOT(N24=""),N24&amp;"|"&amp;A24,"")</f>
-        <v/>
-      </c>
-      <c r="X24" t="str">
-        <f>L24&amp;" "&amp;A24</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" ht="26.25" thickBot="1">
-      <c r="A25" s="18">
-        <f>LEN(C25)-LEN(SUBSTITUTE(C25,",",""))+1</f>
-        <v>7</v>
-      </c>
-      <c r="B25" s="18">
-        <f t="shared" ref="B25" si="26">LEN(D25)-LEN(SUBSTITUTE(D25,",",""))+1</f>
-        <v>6</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>65</v>
-      </c>
+    <row r="25" spans="1:24" ht="16.5" thickBot="1">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="3">
-        <v>8</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="O25" s="6">
-        <v>1.51</v>
-      </c>
-      <c r="P25" s="6">
-        <v>1.51</v>
-      </c>
-      <c r="Q25" s="6">
-        <f>O25*A25</f>
-        <v>10.57</v>
-      </c>
-      <c r="R25" s="6">
-        <f t="shared" si="6"/>
-        <v>10.57</v>
-      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
       <c r="S25" s="4"/>
       <c r="T25" s="4" t="str">
-        <f t="shared" si="24"/>
-        <v>7,497-5981-5-ND</v>
+        <f t="shared" ref="T25:T31" si="24">IF(NOT(M25=""),A25&amp;","&amp;M25,"")</f>
+        <v/>
       </c>
       <c r="U25" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>6,497-5981-5-ND</v>
+        <f t="shared" ref="U25:U39" si="25">IF(NOT(M25=""),B25&amp;","&amp;M25,"")</f>
+        <v/>
       </c>
       <c r="V25" t="str">
         <f>A25&amp;"x "&amp;E25</f>
-        <v>7x 62A MOSFET N-CH</v>
+        <v xml:space="preserve">x </v>
       </c>
       <c r="W25" t="str">
         <f>IF(NOT(N25=""),N25&amp;"|"&amp;A25,"")</f>
-        <v>511-STP62NS04Z|7</v>
+        <v/>
       </c>
       <c r="X25" t="str">
         <f>L25&amp;" "&amp;A25</f>
-        <v>STP75NS04Z 7</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="26.25" thickBot="1">
       <c r="A26" s="18">
         <f>LEN(C26)-LEN(SUBSTITUTE(C26,",",""))+1</f>
+        <v>7</v>
+      </c>
+      <c r="B26" s="18">
+        <f t="shared" ref="B26" si="26">LEN(D26)-LEN(SUBSTITUTE(D26,",",""))+1</f>
         <v>6</v>
       </c>
-      <c r="B26" s="18">
-        <f t="shared" ref="B26:B27" si="27">LEN(D26)-LEN(SUBSTITUTE(D26,",",""))+1</f>
-        <v>6</v>
-      </c>
       <c r="C26" s="4" t="s">
-        <v>217</v>
+        <v>309</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>107</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>218</v>
+        <v>97</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>220</v>
+        <v>65</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3">
         <v>8</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>138</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="M26" s="29" t="s">
-        <v>231</v>
+        <v>202</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="O26" s="6">
-        <v>2.62</v>
+        <v>1.51</v>
       </c>
       <c r="P26" s="6">
-        <v>2.9</v>
+        <v>1.51</v>
       </c>
       <c r="Q26" s="6">
         <f>O26*A26</f>
-        <v>15.72</v>
+        <v>10.57</v>
       </c>
       <c r="R26" s="6">
-        <f t="shared" ref="R26:R27" si="28">P26*A26</f>
-        <v>17.399999999999999</v>
+        <f t="shared" si="6"/>
+        <v>10.57</v>
       </c>
       <c r="S26" s="4"/>
       <c r="T26" s="4" t="str">
-        <f t="shared" ref="T26" si="29">IF(NOT(M26=""),A26&amp;","&amp;M26,"")</f>
-        <v>6,ISL9V5036P3-F085-ND</v>
+        <f t="shared" si="24"/>
+        <v>7,497-5981-5-ND</v>
       </c>
       <c r="U26" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>6,ISL9V5036P3-F085-ND</v>
+        <v>6,497-5981-5-ND</v>
       </c>
       <c r="V26" t="str">
-        <f t="shared" ref="V26:V27" si="30">A26&amp;"x "&amp;E26</f>
-        <v>6x Ignition IGBT</v>
+        <f>A26&amp;"x "&amp;E26</f>
+        <v>7x 62A MOSFET N-CH</v>
       </c>
       <c r="W26" t="str">
-        <f t="shared" ref="W26" si="31">IF(NOT(N26=""),N26&amp;"|"&amp;A26,"")</f>
-        <v>512-ISL9V5036P3-F085
-|6</v>
+        <f>IF(NOT(N26=""),N26&amp;"|"&amp;A26,"")</f>
+        <v>511-STP62NS04Z|7</v>
       </c>
       <c r="X26" t="str">
-        <f t="shared" ref="X26" si="32">L26&amp;" "&amp;A26</f>
-        <v>ISL9V5036P3-F085 6</v>
+        <f>L26&amp;" "&amp;A26</f>
+        <v>STP75NS04Z 7</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="16.5" thickBot="1">
+    <row r="27" spans="1:24" ht="26.25" thickBot="1">
       <c r="A27" s="18">
         <f>LEN(C27)-LEN(SUBSTITUTE(C27,",",""))+1</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B27" s="18">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="B27:B28" si="27">LEN(D27)-LEN(SUBSTITUTE(D27,",",""))+1</f>
         <v>6</v>
       </c>
-      <c r="C27" s="32" t="s">
-        <v>288</v>
+      <c r="C27" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>107</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>289</v>
+        <v>218</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>290</v>
+        <v>219</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3">
@@ -4014,48 +4028,49 @@
         <v>138</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="M27" s="30" t="s">
-        <v>293</v>
+        <v>221</v>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>231</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>292</v>
+        <v>222</v>
       </c>
       <c r="O27" s="6">
-        <v>0.25</v>
+        <v>2.62</v>
       </c>
       <c r="P27" s="6">
-        <v>0.28999999999999998</v>
+        <v>2.9</v>
       </c>
       <c r="Q27" s="6">
         <f>O27*A27</f>
-        <v>0.25</v>
+        <v>15.72</v>
       </c>
       <c r="R27" s="6">
-        <f t="shared" si="28"/>
-        <v>0.28999999999999998</v>
+        <f t="shared" ref="R27:R28" si="28">P27*A27</f>
+        <v>17.399999999999999</v>
       </c>
       <c r="S27" s="4"/>
       <c r="T27" s="4" t="str">
-        <f>IF(NOT(M28=""),A27&amp;","&amp;M28,"")</f>
-        <v>1,PN2222AFS-ND</v>
+        <f t="shared" ref="T27" si="29">IF(NOT(M27=""),A27&amp;","&amp;M27,"")</f>
+        <v>6,ISL9V5036P3-F085-ND</v>
       </c>
       <c r="U27" s="4" t="str">
-        <f>IF(NOT(M28=""),B27&amp;","&amp;M28,"")</f>
-        <v>6,PN2222AFS-ND</v>
+        <f t="shared" si="25"/>
+        <v>6,ISL9V5036P3-F085-ND</v>
       </c>
       <c r="V27" t="str">
-        <f t="shared" si="30"/>
-        <v>1x PNP transistor</v>
+        <f t="shared" ref="V27:V28" si="30">A27&amp;"x "&amp;E27</f>
+        <v>6x Ignition IGBT</v>
       </c>
       <c r="W27" t="str">
-        <f>IF(NOT(N28=""),N28&amp;"|"&amp;A27,"")</f>
-        <v>512-PN2222ABU|1</v>
+        <f t="shared" ref="W27" si="31">IF(NOT(N27=""),N27&amp;"|"&amp;A27,"")</f>
+        <v>512-ISL9V5036P3-F085
+|6</v>
       </c>
       <c r="X27" t="str">
-        <f>L28&amp;" "&amp;A27</f>
-        <v>PN2222ABU 1</v>
+        <f t="shared" ref="X27" si="32">L27&amp;" "&amp;A27</f>
+        <v>ISL9V5036P3-F085 6</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="16.5" thickBot="1">
@@ -4064,20 +4079,20 @@
         <v>1</v>
       </c>
       <c r="B28" s="18">
-        <f t="shared" ref="B28" si="33">LEN(D28)-LEN(SUBSTITUTE(D28,",",""))+1</f>
+        <f t="shared" si="27"/>
         <v>6</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>245</v>
+      <c r="C28" s="32" t="s">
+        <v>287</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>107</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>227</v>
+        <v>288</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>226</v>
+        <v>289</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>228</v>
@@ -4093,13 +4108,13 @@
         <v>138</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>229</v>
+        <v>290</v>
       </c>
       <c r="M28" s="30" t="s">
-        <v>232</v>
+        <v>292</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>230</v>
+        <v>291</v>
       </c>
       <c r="O28" s="6">
         <v>0.25</v>
@@ -4112,367 +4127,367 @@
         <v>0.25</v>
       </c>
       <c r="R28" s="6">
-        <f t="shared" ref="R28" si="34">P28*A28</f>
+        <f t="shared" si="28"/>
         <v>0.28999999999999998</v>
       </c>
       <c r="S28" s="4"/>
       <c r="T28" s="4" t="str">
-        <f>IF(NOT(M27=""),A28&amp;","&amp;M27,"")</f>
-        <v>1,PN2907ABUFS-ND</v>
+        <f>IF(NOT(M29=""),A28&amp;","&amp;M29,"")</f>
+        <v>1,PN2222AFS-ND</v>
       </c>
       <c r="U28" s="4" t="str">
-        <f>IF(NOT(M27=""),B28&amp;","&amp;M27,"")</f>
-        <v>6,PN2907ABUFS-ND</v>
+        <f>IF(NOT(M29=""),B28&amp;","&amp;M29,"")</f>
+        <v>6,PN2222AFS-ND</v>
       </c>
       <c r="V28" t="str">
-        <f t="shared" ref="V28" si="35">A28&amp;"x "&amp;E28</f>
-        <v>1x NPN transistor</v>
+        <f t="shared" si="30"/>
+        <v>1x PNP transistor</v>
       </c>
       <c r="W28" t="str">
-        <f>IF(NOT(N27=""),N27&amp;"|"&amp;A28,"")</f>
-        <v>512-PN2907ABU|1</v>
+        <f>IF(NOT(N29=""),N29&amp;"|"&amp;A28,"")</f>
+        <v>512-PN2222ABU|1</v>
       </c>
       <c r="X28" t="str">
-        <f>L27&amp;" "&amp;A28</f>
-        <v>PN2907ABU 1</v>
+        <f>L29&amp;" "&amp;A28</f>
+        <v>PN2222ABU 1</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="16.5" thickBot="1">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="A29" s="18">
+        <f>LEN(C29)-LEN(SUBSTITUTE(C29,",",""))+1</f>
+        <v>1</v>
+      </c>
+      <c r="B29" s="18">
+        <f t="shared" ref="B29" si="33">LEN(D29)-LEN(SUBSTITUTE(D29,",",""))+1</f>
+        <v>6</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>228</v>
+      </c>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="6"/>
+      <c r="I29" s="3">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="M29" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="O29" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="P29" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Q29" s="6">
+        <f>O29*A29</f>
+        <v>0.25</v>
+      </c>
+      <c r="R29" s="6">
+        <f t="shared" ref="R29" si="34">P29*A29</f>
+        <v>0.28999999999999998</v>
+      </c>
       <c r="S29" s="4"/>
-      <c r="T29" s="4" t="e">
-        <f>IF(NOT(#REF!=""),A29&amp;","&amp;#REF!,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U29" s="4" t="e">
-        <f>IF(NOT(#REF!=""),B29&amp;","&amp;#REF!,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W29" t="e">
-        <f>IF(NOT(#REF!=""),#REF!&amp;"|"&amp;A29,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="X29" t="e">
-        <f>#REF!&amp;" "&amp;A29</f>
-        <v>#REF!</v>
+      <c r="T29" s="4" t="str">
+        <f>IF(NOT(M28=""),A29&amp;","&amp;M28,"")</f>
+        <v>1,PN2907ABUFS-ND</v>
+      </c>
+      <c r="U29" s="4" t="str">
+        <f>IF(NOT(M28=""),B29&amp;","&amp;M28,"")</f>
+        <v>6,PN2907ABUFS-ND</v>
+      </c>
+      <c r="V29" t="str">
+        <f t="shared" ref="V29" si="35">A29&amp;"x "&amp;E29</f>
+        <v>1x NPN transistor</v>
+      </c>
+      <c r="W29" t="str">
+        <f>IF(NOT(N28=""),N28&amp;"|"&amp;A29,"")</f>
+        <v>512-PN2907ABU|1</v>
+      </c>
+      <c r="X29" t="str">
+        <f>L28&amp;" "&amp;A29</f>
+        <v>PN2907ABU 1</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="16.5" thickBot="1">
-      <c r="A30" s="18">
-        <f t="shared" ref="A30:A35" si="36">LEN(C30)-LEN(SUBSTITUTE(C30,",",""))+1</f>
-        <v>1</v>
-      </c>
-      <c r="B30" s="18">
-        <f t="shared" ref="B30:B36" si="37">LEN(D30)-LEN(SUBSTITUTE(D30,",",""))+1</f>
-        <v>1</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="3">
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4" t="e">
+        <f>IF(NOT(#REF!=""),A30&amp;","&amp;#REF!,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="U30" s="4" t="e">
+        <f>IF(NOT(#REF!=""),B30&amp;","&amp;#REF!,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W30" t="e">
+        <f>IF(NOT(#REF!=""),#REF!&amp;"|"&amp;A30,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X30" t="e">
+        <f>#REF!&amp;" "&amp;A30</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="16.5" thickBot="1">
+      <c r="A31" s="18">
+        <f t="shared" ref="A31:A36" si="36">LEN(C31)-LEN(SUBSTITUTE(C31,",",""))+1</f>
+        <v>1</v>
+      </c>
+      <c r="B31" s="18">
+        <f t="shared" ref="B31:B37" si="37">LEN(D31)-LEN(SUBSTITUTE(D31,",",""))+1</f>
+        <v>1</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3">
         <v>7</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N30" s="2" t="s">
+      <c r="N31" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="O30" s="5">
+      <c r="O31" s="5">
         <v>0.08</v>
       </c>
-      <c r="P30" s="5">
+      <c r="P31" s="5">
         <v>0.11</v>
       </c>
-      <c r="Q30" s="6">
-        <f t="shared" ref="Q30" si="38">O30*A30</f>
+      <c r="Q31" s="6">
+        <f t="shared" ref="Q31" si="38">O31*A31</f>
         <v>0.08</v>
       </c>
-      <c r="R30" s="6">
+      <c r="R31" s="6">
         <f t="shared" si="6"/>
         <v>0.11</v>
       </c>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4" t="str">
+      <c r="S31" s="4"/>
+      <c r="T31" s="4" t="str">
         <f t="shared" si="24"/>
         <v>1,10.0KXBK-ND</v>
       </c>
-      <c r="U30" s="4" t="str">
+      <c r="U31" s="4" t="str">
         <f t="shared" si="25"/>
         <v>1,10.0KXBK-ND</v>
       </c>
-      <c r="V30" t="str">
-        <f>"Resistor - " &amp; A30&amp;"x "&amp;E30</f>
+      <c r="V31" t="str">
+        <f>"Resistor - " &amp; A31&amp;"x "&amp;E31</f>
         <v>Resistor - 1x 10k</v>
       </c>
-      <c r="W30" t="str">
-        <f t="shared" ref="W30" si="39">IF(NOT(N30=""),N30&amp;"|"&amp;A30,"")</f>
+      <c r="W31" t="str">
+        <f t="shared" ref="W31" si="39">IF(NOT(N31=""),N31&amp;"|"&amp;A31,"")</f>
         <v>603-MFR-25FBF52-10K|1</v>
       </c>
-      <c r="X30" t="str">
-        <f t="shared" ref="X30" si="40">L30&amp;" "&amp;A30</f>
+      <c r="X31" t="str">
+        <f t="shared" ref="X31" si="40">L31&amp;" "&amp;A31</f>
         <v>MFR-25FBF52-10K 1</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" ht="26.25" thickBot="1">
-      <c r="A31" s="18">
-        <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
     </row>
     <row r="32" spans="1:24" ht="26.25" thickBot="1">
       <c r="A32" s="18">
         <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+    </row>
+    <row r="33" spans="1:24" ht="26.25" thickBot="1">
+      <c r="A33" s="18">
+        <f t="shared" si="36"/>
         <v>17</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B33" s="18">
         <f t="shared" si="37"/>
         <v>13</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="D32" s="22" t="s">
+      <c r="C33" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D33" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3">
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3">
         <v>32</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J33" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="L33" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N32" s="2" t="s">
+      <c r="N33" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="O32" s="5">
+      <c r="O33" s="5">
         <v>0.06</v>
       </c>
-      <c r="P32" s="5">
+      <c r="P33" s="5">
         <v>0.11</v>
       </c>
-      <c r="Q32" s="6">
-        <f t="shared" ref="Q32:Q39" si="41">O32*A32</f>
+      <c r="Q33" s="6">
+        <f t="shared" ref="Q33:Q40" si="41">O33*A33</f>
         <v>1.02</v>
       </c>
-      <c r="R32" s="6">
-        <f t="shared" ref="R32:R39" si="42">P32*A32</f>
+      <c r="R33" s="6">
+        <f t="shared" ref="R33:R40" si="42">P33*A33</f>
         <v>1.87</v>
       </c>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4" t="str">
-        <f t="shared" ref="T32:T41" si="43">IF(NOT(M32=""),A32&amp;","&amp;M32,"")</f>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4" t="str">
+        <f t="shared" ref="T33:T42" si="43">IF(NOT(M33=""),A33&amp;","&amp;M33,"")</f>
         <v>17,1.00KXBK-ND</v>
       </c>
-      <c r="U32" s="4" t="str">
+      <c r="U33" s="4" t="str">
         <f t="shared" si="25"/>
         <v>13,1.00KXBK-ND</v>
       </c>
-      <c r="V32" t="str">
-        <f t="shared" ref="V32:V39" si="44">"Resistor - " &amp; A32&amp;"x "&amp;E32</f>
+      <c r="V33" t="str">
+        <f t="shared" ref="V33:V40" si="44">"Resistor - " &amp; A33&amp;"x "&amp;E33</f>
         <v>Resistor - 17x 1k</v>
       </c>
-      <c r="W32" t="str">
-        <f t="shared" ref="W32:W41" si="45">IF(NOT(N32=""),N32&amp;"|"&amp;A32,"")</f>
+      <c r="W33" t="str">
+        <f t="shared" ref="W33:W42" si="45">IF(NOT(N33=""),N33&amp;"|"&amp;A33,"")</f>
         <v>603-MFR-25FBF52-1K|17</v>
       </c>
-      <c r="X32" t="str">
-        <f t="shared" ref="X32:X41" si="46">L32&amp;" "&amp;A32</f>
+      <c r="X33" t="str">
+        <f t="shared" ref="X33:X42" si="46">L33&amp;" "&amp;A33</f>
         <v>MFR-25FBF52-1K 17</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="16.5" thickBot="1">
-      <c r="A33" s="18">
+    <row r="34" spans="1:24" ht="16.5" thickBot="1">
+      <c r="A34" s="18">
         <f t="shared" si="36"/>
         <v>3</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B34" s="18">
         <f t="shared" si="37"/>
         <v>2</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C34" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D34" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E34" s="13">
         <v>680</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F34" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13" t="s">
+      <c r="G34" s="3"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="K33" s="13" t="s">
+      <c r="K34" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="L33" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="M34" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="N33" s="2" t="s">
+      <c r="N34" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="O33" s="14">
+      <c r="O34" s="14">
         <v>0.22</v>
-      </c>
-      <c r="P33" s="14">
-        <v>0.15</v>
-      </c>
-      <c r="Q33" s="6">
-        <f t="shared" si="41"/>
-        <v>0.66</v>
-      </c>
-      <c r="R33" s="6">
-        <f t="shared" si="42"/>
-        <v>0.44999999999999996</v>
-      </c>
-      <c r="S33" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="T33" s="4" t="str">
-        <f t="shared" si="43"/>
-        <v>3,A105963CT-ND</v>
-      </c>
-      <c r="U33" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>2,A105963CT-ND</v>
-      </c>
-      <c r="V33" t="str">
-        <f t="shared" si="44"/>
-        <v>Resistor - 3x 680</v>
-      </c>
-      <c r="W33" t="str">
-        <f t="shared" si="45"/>
-        <v>279-LR1F680R|3</v>
-      </c>
-      <c r="X33" t="str">
-        <f t="shared" si="46"/>
-        <v>1622545-1 3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" ht="26.25" thickBot="1">
-      <c r="A34" s="18">
-        <f t="shared" si="36"/>
-        <v>6</v>
-      </c>
-      <c r="B34" s="18">
-        <f t="shared" si="37"/>
-        <v>6</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E34" s="3">
-        <v>470</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3">
-        <v>9</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="O34" s="5">
-        <v>0.11</v>
       </c>
       <c r="P34" s="14">
         <v>0.15</v>
@@ -4483,28 +4498,30 @@
       </c>
       <c r="R34" s="6">
         <f t="shared" si="42"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="S34" s="4"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="S34" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="T34" s="4" t="str">
         <f t="shared" si="43"/>
-        <v>6,RNF14FTD470RCT-ND</v>
+        <v>3,A105963CT-ND</v>
       </c>
       <c r="U34" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>6,RNF14FTD470RCT-ND</v>
+        <v>2,A105963CT-ND</v>
       </c>
       <c r="V34" t="str">
         <f t="shared" si="44"/>
-        <v>Resistor - 6x 470</v>
+        <v>Resistor - 3x 680</v>
       </c>
       <c r="W34" t="str">
         <f t="shared" si="45"/>
-        <v>279-LR1F470R|6</v>
+        <v>279-LR1F680R|3</v>
       </c>
       <c r="X34" t="str">
         <f t="shared" si="46"/>
-        <v>RNF14FTD470R 6</v>
+        <v>1622545-1 3</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="26.25" thickBot="1">
@@ -4514,102 +4531,103 @@
       </c>
       <c r="B35" s="18">
         <f t="shared" si="37"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>263</v>
+        <v>182</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>189</v>
+        <v>136</v>
+      </c>
+      <c r="E35" s="3">
+        <v>470</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>191</v>
+      <c r="L35" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="O35" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="P35" s="5">
-        <v>0.16</v>
+        <v>0.11</v>
+      </c>
+      <c r="P35" s="14">
+        <v>0.15</v>
       </c>
       <c r="Q35" s="6">
         <f t="shared" si="41"/>
-        <v>0.84000000000000008</v>
+        <v>0.66</v>
       </c>
       <c r="R35" s="6">
         <f t="shared" si="42"/>
-        <v>0.96</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="S35" s="4"/>
       <c r="T35" s="4" t="str">
         <f t="shared" si="43"/>
-        <v>6,2.49KXBK-ND</v>
+        <v>6,RNF14FTD470RCT-ND</v>
       </c>
       <c r="U35" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>5,2.49KXBK-ND</v>
+        <v>6,RNF14FTD470RCT-ND</v>
       </c>
       <c r="V35" t="str">
         <f t="shared" si="44"/>
-        <v>Resistor - 6x 1% 2.49k</v>
+        <v>Resistor - 6x 470</v>
       </c>
       <c r="W35" t="str">
         <f t="shared" si="45"/>
-        <v>603-MFR-25FBF52-2K49|6</v>
+        <v>279-LR1F470R|6</v>
       </c>
       <c r="X35" t="str">
         <f t="shared" si="46"/>
-        <v>MFR-25FBF52-2K49 6</v>
+        <v>RNF14FTD470R 6</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="16.5" thickBot="1">
+    <row r="36" spans="1:24" ht="26.25" thickBot="1">
       <c r="A36" s="18">
-        <v>1</v>
+        <f t="shared" si="36"/>
+        <v>6</v>
       </c>
       <c r="B36" s="18">
         <f t="shared" si="37"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>71</v>
+        <v>198</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G36" s="3"/>
+        <v>190</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>42</v>
@@ -4618,77 +4636,74 @@
         <v>138</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>53</v>
+        <v>191</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>54</v>
+        <v>188</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="O36" s="5">
-        <v>0.46</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="P36" s="5">
-        <v>1.1000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="Q36" s="6">
         <f t="shared" si="41"/>
-        <v>0.46</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="R36" s="6">
         <f t="shared" si="42"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="S36" s="4" t="s">
-        <v>86</v>
-      </c>
+        <v>0.96</v>
+      </c>
+      <c r="S36" s="4"/>
       <c r="T36" s="4" t="str">
         <f t="shared" si="43"/>
-        <v>1,3.9KADCT-ND</v>
+        <v>6,2.49KXBK-ND</v>
       </c>
       <c r="U36" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>1,3.9KADCT-ND</v>
+        <v>5,2.49KXBK-ND</v>
       </c>
       <c r="V36" t="str">
         <f t="shared" si="44"/>
-        <v>Resistor - 1x 0.1% 3.9k</v>
+        <v>Resistor - 6x 1% 2.49k</v>
       </c>
       <c r="W36" t="str">
         <f t="shared" si="45"/>
-        <v>279-H83K9BDA|1</v>
+        <v>603-MFR-25FBF52-2K49|6</v>
       </c>
       <c r="X36" t="str">
         <f t="shared" si="46"/>
-        <v>MFP-25BRD52-3K9 1</v>
+        <v>MFR-25FBF52-2K49 6</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="16.5" thickBot="1">
       <c r="A37" s="18">
-        <f t="shared" ref="A37" si="47">LEN(C37)-LEN(SUBSTITUTE(C37,",",""))+1</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B37" s="18">
-        <f>LEN(D37)-LEN(SUBSTITUTE(D37,",",""))+1</f>
-        <v>8</v>
+        <f t="shared" si="37"/>
+        <v>1</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>112</v>
+        <v>284</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>42</v>
@@ -4697,75 +4712,77 @@
         <v>138</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>207</v>
+        <v>53</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="O37" s="5">
-        <v>0.1</v>
+        <v>0.46</v>
       </c>
       <c r="P37" s="5">
-        <v>0.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q37" s="6">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>0.46</v>
       </c>
       <c r="R37" s="6">
         <f t="shared" si="42"/>
-        <v>1</v>
-      </c>
-      <c r="S37" s="4"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="T37" s="4" t="str">
         <f t="shared" si="43"/>
-        <v>10,100KXBK-ND</v>
+        <v>1,3.9KADCT-ND</v>
       </c>
       <c r="U37" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>8,100KXBK-ND</v>
+        <v>1,3.9KADCT-ND</v>
       </c>
       <c r="V37" t="str">
         <f t="shared" si="44"/>
-        <v>Resistor - 10x 100k</v>
+        <v>Resistor - 1x 0.1% 3.9k</v>
       </c>
       <c r="W37" t="str">
         <f t="shared" si="45"/>
-        <v>603-FMF-25FTF52100K|10</v>
+        <v>279-H83K9BDA|1</v>
       </c>
       <c r="X37" t="str">
         <f t="shared" si="46"/>
-        <v>MFR-25FBF52-100K 10</v>
+        <v>MFP-25BRD52-3K9 1</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="16.5" thickBot="1">
       <c r="A38" s="18">
-        <f>LEN(C38)-LEN(SUBSTITUTE(C38,",",""))+1</f>
-        <v>3</v>
+        <f t="shared" ref="A38" si="47">LEN(C38)-LEN(SUBSTITUTE(C38,",",""))+1</f>
+        <v>10</v>
       </c>
       <c r="B38" s="18">
         <f>LEN(D38)-LEN(SUBSTITUTE(D38,",",""))+1</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>211</v>
+        <v>311</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E38" s="3">
-        <v>160</v>
+        <v>112</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>42</v>
@@ -4774,70 +4791,70 @@
         <v>138</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>59</v>
+        <v>207</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="O38" s="5">
-        <v>0.27</v>
+        <v>0.1</v>
       </c>
       <c r="P38" s="5">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
       <c r="Q38" s="6">
         <f t="shared" si="41"/>
-        <v>0.81</v>
+        <v>1</v>
       </c>
       <c r="R38" s="6">
         <f t="shared" si="42"/>
-        <v>0.69000000000000006</v>
+        <v>1</v>
       </c>
       <c r="S38" s="4"/>
       <c r="T38" s="4" t="str">
         <f t="shared" si="43"/>
-        <v>3,160YCT-ND</v>
+        <v>10,100KXBK-ND</v>
       </c>
       <c r="U38" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>2,160YCT-ND</v>
+        <v>8,100KXBK-ND</v>
       </c>
       <c r="V38" t="str">
         <f t="shared" si="44"/>
-        <v>Resistor - 3x 160</v>
+        <v>Resistor - 10x 100k</v>
       </c>
       <c r="W38" t="str">
         <f t="shared" si="45"/>
-        <v>594-5083NW160R0J|3</v>
+        <v>603-FMF-25FTF52100K|10</v>
       </c>
       <c r="X38" t="str">
         <f t="shared" si="46"/>
-        <v>FMP200FRF52-160R 3</v>
+        <v>MFR-25FBF52-100K 10</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="26.25" thickBot="1">
+    <row r="39" spans="1:24" ht="16.5" thickBot="1">
       <c r="A39" s="18">
         <f>LEN(C39)-LEN(SUBSTITUTE(C39,",",""))+1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B39" s="18">
         <f>LEN(D39)-LEN(SUBSTITUTE(D39,",",""))+1</f>
         <v>2</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>286</v>
+        <v>211</v>
       </c>
       <c r="D39" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>213</v>
+      <c r="E39" s="3">
+        <v>160</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>214</v>
+        <v>58</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -4851,306 +4868,307 @@
         <v>138</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="N39" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="O39" s="5"/>
+        <v>169</v>
+      </c>
+      <c r="O39" s="5">
+        <v>0.27</v>
+      </c>
       <c r="P39" s="5">
-        <v>0.1</v>
+        <v>0.23</v>
       </c>
       <c r="Q39" s="6">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>0.81</v>
       </c>
       <c r="R39" s="6">
         <f t="shared" si="42"/>
-        <v>0.2</v>
+        <v>0.69000000000000006</v>
       </c>
       <c r="S39" s="4"/>
       <c r="T39" s="4" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>3,160YCT-ND</v>
       </c>
       <c r="U39" s="4" t="str">
-        <f t="shared" ref="U39" si="48">IF(NOT(M39=""),B39&amp;","&amp;M39,"")</f>
-        <v/>
+        <f t="shared" si="25"/>
+        <v>2,160YCT-ND</v>
       </c>
       <c r="V39" t="str">
         <f t="shared" si="44"/>
-        <v>Resistor - 2x 7.5k</v>
+        <v>Resistor - 3x 160</v>
       </c>
       <c r="W39" t="str">
         <f t="shared" si="45"/>
-        <v>603-MFR-25FBF52-7K5
-|2</v>
+        <v>594-5083NW160R0J|3</v>
       </c>
       <c r="X39" t="str">
         <f t="shared" si="46"/>
-        <v>MFR-25FBF52-7K5 2</v>
+        <v>FMP200FRF52-160R 3</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="16.5" thickBot="1">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+    <row r="40" spans="1:24" ht="26.25" thickBot="1">
+      <c r="A40" s="18">
+        <f>LEN(C40)-LEN(SUBSTITUTE(C40,",",""))+1</f>
+        <v>2</v>
+      </c>
+      <c r="B40" s="18">
+        <f>LEN(D40)-LEN(SUBSTITUTE(D40,",",""))+1</f>
+        <v>2</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
+      <c r="I40" s="3">
+        <v>4</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>215</v>
+      </c>
       <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="6"/>
+      <c r="N40" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Q40" s="6">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="6">
+        <f t="shared" si="42"/>
+        <v>0.2</v>
+      </c>
       <c r="S40" s="4"/>
       <c r="T40" s="4" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="U40" s="4" t="str">
-        <f>IF(NOT(M40=""),B40&amp;","&amp;M40,"")</f>
+        <f t="shared" ref="U40" si="48">IF(NOT(M40=""),B40&amp;","&amp;M40,"")</f>
         <v/>
+      </c>
+      <c r="V40" t="str">
+        <f t="shared" si="44"/>
+        <v>Resistor - 2x 7.5k</v>
       </c>
       <c r="W40" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>603-MFR-25FBF52-7K5
+|2</v>
       </c>
       <c r="X40" t="str">
         <f t="shared" si="46"/>
-        <v xml:space="preserve"> </v>
+        <v>MFR-25FBF52-7K5 2</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="26.25" thickBot="1">
-      <c r="A41" s="18">
-        <v>1</v>
-      </c>
-      <c r="B41" s="18">
-        <f t="shared" ref="B41:B45" si="49">LEN(D41)-LEN(SUBSTITUTE(D41,",",""))+1</f>
-        <v>1</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>65</v>
-      </c>
+    <row r="41" spans="1:24" ht="16.5" thickBot="1">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="3">
-        <v>2</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="O41" s="5">
-        <v>1.68</v>
-      </c>
-      <c r="P41" s="5">
-        <v>1.67</v>
-      </c>
-      <c r="Q41" s="6">
-        <f>O41*A41</f>
-        <v>1.68</v>
-      </c>
-      <c r="R41" s="6">
-        <f>P41*A41</f>
-        <v>1.67</v>
-      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="6"/>
       <c r="S41" s="4"/>
       <c r="T41" s="4" t="str">
         <f t="shared" si="43"/>
-        <v>1,LM2940T-5.0/NOPB</v>
+        <v/>
       </c>
       <c r="U41" s="4" t="str">
         <f>IF(NOT(M41=""),B41&amp;","&amp;M41,"")</f>
-        <v>1,LM2940T-5.0/NOPB</v>
-      </c>
-      <c r="V41" t="str">
-        <f>A41&amp;"x "&amp;E41</f>
-        <v>1x LM2940T-5.0/NOPB</v>
+        <v/>
       </c>
       <c r="W41" t="str">
         <f t="shared" si="45"/>
-        <v>926-LM2940T-5.0/NOPB|1</v>
+        <v/>
       </c>
       <c r="X41" t="str">
         <f t="shared" si="46"/>
-        <v>LM2940T-5.0/NOPB 1</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="16.5" thickBot="1">
+    <row r="42" spans="1:24" ht="26.25" thickBot="1">
       <c r="A42" s="18">
         <v>1</v>
       </c>
       <c r="B42" s="18">
+        <f t="shared" ref="B42:B46" si="49">LEN(D42)-LEN(SUBSTITUTE(D42,",",""))+1</f>
         <v>1</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>294</v>
+        <v>61</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>295</v>
+        <v>63</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>296</v>
+        <v>64</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>297</v>
+        <v>65</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3">
         <v>2</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>138</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="M42" s="34" t="s">
-        <v>298</v>
+        <v>63</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>299</v>
+        <v>165</v>
       </c>
       <c r="O42" s="5">
-        <v>0.59</v>
+        <v>1.68</v>
       </c>
       <c r="P42" s="5">
-        <v>0.56999999999999995</v>
+        <v>1.67</v>
       </c>
       <c r="Q42" s="6">
-        <v>0.59</v>
+        <f>O42*A42</f>
+        <v>1.68</v>
       </c>
       <c r="R42" s="6">
-        <v>0.56999999999999995</v>
+        <f>P42*A42</f>
+        <v>1.67</v>
       </c>
       <c r="S42" s="4"/>
-      <c r="T42" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="U42" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="V42" t="s">
-        <v>301</v>
-      </c>
-      <c r="W42" t="s">
-        <v>302</v>
-      </c>
-      <c r="X42" t="s">
-        <v>303</v>
+      <c r="T42" s="4" t="str">
+        <f t="shared" si="43"/>
+        <v>1,LM2940T-5.0/NOPB</v>
+      </c>
+      <c r="U42" s="4" t="str">
+        <f>IF(NOT(M42=""),B42&amp;","&amp;M42,"")</f>
+        <v>1,LM2940T-5.0/NOPB</v>
+      </c>
+      <c r="V42" t="str">
+        <f>A42&amp;"x "&amp;E42</f>
+        <v>1x LM2940T-5.0/NOPB</v>
+      </c>
+      <c r="W42" t="str">
+        <f t="shared" si="45"/>
+        <v>926-LM2940T-5.0/NOPB|1</v>
+      </c>
+      <c r="X42" t="str">
+        <f t="shared" si="46"/>
+        <v>LM2940T-5.0/NOPB 1</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="26.25" thickBot="1">
+    <row r="43" spans="1:24" ht="16.5" thickBot="1">
       <c r="A43" s="18">
         <v>1</v>
       </c>
       <c r="B43" s="18">
-        <f t="shared" si="49"/>
         <v>1</v>
       </c>
-      <c r="C43" s="22" t="s">
-        <v>257</v>
+      <c r="C43" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>248</v>
+        <v>294</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>249</v>
+        <v>295</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K43" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="L43" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="M43" s="31" t="s">
-        <v>255</v>
+        <v>294</v>
+      </c>
+      <c r="M43" s="34" t="s">
+        <v>297</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="O43" s="6">
-        <v>12.79</v>
-      </c>
-      <c r="P43" s="6">
-        <v>19.739999999999998</v>
+        <v>298</v>
+      </c>
+      <c r="O43" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="P43" s="5">
+        <v>0.56999999999999995</v>
       </c>
       <c r="Q43" s="6">
-        <f>O43*A43</f>
-        <v>12.79</v>
+        <v>0.59</v>
       </c>
       <c r="R43" s="6">
-        <f>P43*A43</f>
-        <v>19.739999999999998</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="S43" s="4"/>
-      <c r="T43" s="4" t="str">
-        <f t="shared" ref="T43:T48" si="50">IF(NOT(M43=""),A43&amp;","&amp;M43,"")</f>
-        <v>1,MPXH6115A6U-ND</v>
-      </c>
-      <c r="U43" s="4" t="str">
-        <f>IF(NOT(M43=""),B43&amp;","&amp;M43,"")</f>
-        <v>1,MPXH6115A6U-ND</v>
-      </c>
-      <c r="V43" t="str">
-        <f>A43&amp;"x "&amp;E43</f>
-        <v>1x Baro sensor</v>
-      </c>
-      <c r="W43" t="str">
-        <f t="shared" ref="W43:W48" si="51">IF(NOT(N43=""),N43&amp;"|"&amp;A43,"")</f>
-        <v>841-MPXH6115A6U|1</v>
-      </c>
-      <c r="X43" t="str">
-        <f>L43&amp;" "&amp;A43</f>
-        <v>MPXH6115A6U 1</v>
+      <c r="T43" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="U43" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="V43" t="s">
+        <v>300</v>
+      </c>
+      <c r="W43" t="s">
+        <v>301</v>
+      </c>
+      <c r="X43" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="26.25" thickBot="1">
@@ -5161,20 +5179,20 @@
         <f t="shared" si="49"/>
         <v>1</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>79</v>
+      <c r="C44" s="22" t="s">
+        <v>257</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>79</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3">
@@ -5185,244 +5203,285 @@
       </c>
       <c r="K44" s="3"/>
       <c r="L44" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>76</v>
+        <v>254</v>
+      </c>
+      <c r="M44" s="31" t="s">
+        <v>255</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>152</v>
+        <v>256</v>
       </c>
       <c r="O44" s="6">
-        <v>15.41</v>
+        <v>12.79</v>
       </c>
       <c r="P44" s="6">
-        <v>15.37</v>
+        <v>19.739999999999998</v>
       </c>
       <c r="Q44" s="6">
         <f>O44*A44</f>
-        <v>15.41</v>
+        <v>12.79</v>
       </c>
       <c r="R44" s="6">
         <f>P44*A44</f>
-        <v>15.37</v>
+        <v>19.739999999999998</v>
       </c>
       <c r="S44" s="4"/>
       <c r="T44" s="4" t="str">
-        <f t="shared" si="50"/>
-        <v>1,MPX4250AP-ND</v>
+        <f t="shared" ref="T44:T49" si="50">IF(NOT(M44=""),A44&amp;","&amp;M44,"")</f>
+        <v>1,MPXH6115A6U-ND</v>
       </c>
       <c r="U44" s="4" t="str">
         <f>IF(NOT(M44=""),B44&amp;","&amp;M44,"")</f>
-        <v>1,MPX4250AP-ND</v>
+        <v>1,MPXH6115A6U-ND</v>
       </c>
       <c r="V44" t="str">
         <f>A44&amp;"x "&amp;E44</f>
-        <v>1x 2.5-Bar MAP sensor</v>
+        <v>1x Baro sensor</v>
       </c>
       <c r="W44" t="str">
-        <f t="shared" si="51"/>
-        <v>841-MPX4250AP|1</v>
+        <f t="shared" ref="W44:W49" si="51">IF(NOT(N44=""),N44&amp;"|"&amp;A44,"")</f>
+        <v>841-MPXH6115A6U|1</v>
       </c>
       <c r="X44" t="str">
         <f>L44&amp;" "&amp;A44</f>
-        <v>MPX4250AP 1</v>
+        <v>MPXH6115A6U 1</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="26.25" thickBot="1">
       <c r="A45" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" s="18">
         <f t="shared" si="49"/>
         <v>1</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>103</v>
+      <c r="C45" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13">
-        <v>2</v>
-      </c>
-      <c r="J45" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="K45" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="L45" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="M45" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="N45" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="O45" s="20">
-        <v>2.92</v>
-      </c>
-      <c r="P45" s="20">
-        <v>2.92</v>
+        <v>77</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3">
+        <v>1</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O45" s="6">
+        <v>15.41</v>
+      </c>
+      <c r="P45" s="6">
+        <v>15.37</v>
       </c>
       <c r="Q45" s="6">
         <f>O45*A45</f>
-        <v>5.84</v>
+        <v>15.41</v>
       </c>
       <c r="R45" s="6">
         <f>P45*A45</f>
-        <v>5.84</v>
-      </c>
-      <c r="S45" s="12"/>
+        <v>15.37</v>
+      </c>
+      <c r="S45" s="4"/>
       <c r="T45" s="4" t="str">
         <f t="shared" si="50"/>
-        <v>2,TC4424EPA-ND</v>
+        <v>1,MPX4250AP-ND</v>
       </c>
       <c r="U45" s="4" t="str">
         <f>IF(NOT(M45=""),B45&amp;","&amp;M45,"")</f>
-        <v>1,TC4424EPA-ND</v>
+        <v>1,MPX4250AP-ND</v>
       </c>
       <c r="V45" t="str">
         <f>A45&amp;"x "&amp;E45</f>
-        <v>2x TC4424EPA</v>
+        <v>1x 2.5-Bar MAP sensor</v>
       </c>
       <c r="W45" t="str">
         <f t="shared" si="51"/>
-        <v>579-TC4424EPA|2</v>
+        <v>841-MPX4250AP|1</v>
       </c>
       <c r="X45" t="str">
         <f>L45&amp;" "&amp;A45</f>
-        <v>TC4424EPA 2</v>
+        <v>MPX4250AP 1</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="16.5" thickBot="1">
+    <row r="46" spans="1:24" ht="26.25" thickBot="1">
       <c r="A46" s="18">
+        <v>2</v>
+      </c>
+      <c r="B46" s="18">
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
-      <c r="B46" s="26">
-        <v>1</v>
-      </c>
       <c r="C46" s="12" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>176</v>
+        <v>102</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>103</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>104</v>
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="K46" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="K46" s="13" t="s">
         <v>138</v>
       </c>
       <c r="L46" s="13" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="M46" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="O46" s="6">
-        <v>2.4</v>
-      </c>
-      <c r="P46" s="6">
-        <v>2.4</v>
+        <v>105</v>
+      </c>
+      <c r="N46" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="O46" s="20">
+        <v>2.92</v>
+      </c>
+      <c r="P46" s="20">
+        <v>2.92</v>
       </c>
       <c r="Q46" s="6">
         <f>O46*A46</f>
-        <v>2.4</v>
+        <v>5.84</v>
       </c>
       <c r="R46" s="6">
         <f>P46*A46</f>
-        <v>2.4</v>
-      </c>
-      <c r="S46" s="4"/>
+        <v>5.84</v>
+      </c>
+      <c r="S46" s="12"/>
       <c r="T46" s="4" t="str">
         <f t="shared" si="50"/>
-        <v>1,F2720-ND</v>
+        <v>2,TC4424EPA-ND</v>
       </c>
       <c r="U46" s="4" t="str">
-        <f t="shared" ref="U46" si="52">IF(NOT(M46=""),B46&amp;","&amp;M46,"")</f>
-        <v>1,F2720-ND</v>
+        <f>IF(NOT(M46=""),B46&amp;","&amp;M46,"")</f>
+        <v>1,TC4424EPA-ND</v>
       </c>
       <c r="V46" t="str">
         <f>A46&amp;"x "&amp;E46</f>
-        <v>1x SP721APP</v>
+        <v>2x TC4424EPA</v>
       </c>
       <c r="W46" t="str">
         <f t="shared" si="51"/>
-        <v>576-SP721APP|1</v>
+        <v>579-TC4424EPA|2</v>
       </c>
       <c r="X46" t="str">
         <f>L46&amp;" "&amp;A46</f>
-        <v>SP721APP 1</v>
+        <v>TC4424EPA 2</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="16.5" thickBot="1">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="10"/>
+      <c r="A47" s="18">
+        <v>1</v>
+      </c>
+      <c r="B47" s="26">
+        <v>1</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13">
+        <v>1</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="K47" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="L47" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="M47" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="O47" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="P47" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="Q47" s="6">
+        <f>O47*A47</f>
+        <v>2.4</v>
+      </c>
+      <c r="R47" s="6">
+        <f>P47*A47</f>
+        <v>2.4</v>
+      </c>
+      <c r="S47" s="4"/>
       <c r="T47" s="4" t="str">
         <f t="shared" si="50"/>
-        <v/>
+        <v>1,F2720-ND</v>
       </c>
       <c r="U47" s="4" t="str">
-        <f>IF(NOT(M47=""),B47&amp;","&amp;M47,"")</f>
-        <v/>
+        <f t="shared" ref="U47" si="52">IF(NOT(M47=""),B47&amp;","&amp;M47,"")</f>
+        <v>1,F2720-ND</v>
+      </c>
+      <c r="V47" t="str">
+        <f>A47&amp;"x "&amp;E47</f>
+        <v>1x SP721APP</v>
       </c>
       <c r="W47" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>576-SP721APP|1</v>
+      </c>
+      <c r="X47" t="str">
+        <f>L47&amp;" "&amp;A47</f>
+        <v>SP721APP 1</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="16.5" thickBot="1">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
-      <c r="C48" s="4" t="s">
-        <v>277</v>
-      </c>
+      <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -5452,132 +5511,92 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A49" s="18">
-        <v>1</v>
-      </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
+    <row r="49" spans="1:24" ht="16.5" thickBot="1">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="10"/>
       <c r="R49" s="6"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="4"/>
-      <c r="U49" s="4"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="4" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="U49" s="4" t="str">
+        <f>IF(NOT(M49=""),B49&amp;","&amp;M49,"")</f>
+        <v/>
+      </c>
+      <c r="W49" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
-    <row r="50" spans="1:24" ht="16.5" thickBot="1">
+    <row r="50" spans="1:24" ht="25.5" customHeight="1" thickBot="1">
       <c r="A50" s="18">
         <v>1</v>
       </c>
-      <c r="B50" s="26">
-        <v>1</v>
-      </c>
+      <c r="B50" s="26"/>
       <c r="C50" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>144</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="D50" s="12"/>
       <c r="E50" s="13" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="G50" s="3"/>
+        <v>278</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="H50" s="13"/>
-      <c r="I50" s="13">
-        <v>1</v>
-      </c>
-      <c r="J50" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="K50" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="L50" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="M50" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="O50" s="6">
-        <v>0.33</v>
-      </c>
-      <c r="P50" s="6">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="Q50" s="6">
-        <f>O50*A50</f>
-        <v>0.33</v>
-      </c>
-      <c r="R50" s="6">
-        <f>P50*A50</f>
-        <v>0.38200000000000001</v>
-      </c>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
       <c r="S50" s="4"/>
-      <c r="T50" s="4" t="str">
-        <f>IF(NOT(M50=""),A50&amp;","&amp;M50,"")</f>
-        <v>1,WM3702-ND</v>
-      </c>
-      <c r="U50" s="4" t="str">
-        <f>IF(NOT(M50=""),B50&amp;","&amp;M50,"")</f>
-        <v>1,WM3702-ND</v>
-      </c>
-      <c r="V50" t="str">
-        <f>A50&amp;"x "&amp;E50</f>
-        <v>1x 6-POS connector</v>
-      </c>
-      <c r="W50" t="str">
-        <f>IF(NOT(N50=""),N50&amp;"|"&amp;A50,"")</f>
-        <v>538-39-01-2060|1</v>
-      </c>
-      <c r="X50" t="str">
-        <f>L50&amp;" "&amp;A50</f>
-        <v>39-01-2060 1</v>
-      </c>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
     </row>
     <row r="51" spans="1:24" ht="16.5" thickBot="1">
       <c r="A51" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B51" s="26">
         <v>1</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>144</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="13"/>
@@ -5591,79 +5610,129 @@
         <v>138</v>
       </c>
       <c r="L51" s="13" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M51" s="13" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="O51" s="6">
-        <v>0.16</v>
+        <v>0.33</v>
       </c>
       <c r="P51" s="6">
-        <v>0.18099999999999999</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="Q51" s="6">
         <f>O51*A51</f>
-        <v>0.96</v>
+        <v>0.33</v>
       </c>
       <c r="R51" s="6">
         <f>P51*A51</f>
-        <v>1.0859999999999999</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="S51" s="4"/>
       <c r="T51" s="4" t="str">
         <f>IF(NOT(M51=""),A51&amp;","&amp;M51,"")</f>
-        <v>6,WM9154-ND</v>
+        <v>1,WM3702-ND</v>
       </c>
       <c r="U51" s="4" t="str">
         <f>IF(NOT(M51=""),B51&amp;","&amp;M51,"")</f>
-        <v>1,WM9154-ND</v>
+        <v>1,WM3702-ND</v>
       </c>
       <c r="V51" t="str">
         <f>A51&amp;"x "&amp;E51</f>
-        <v>6x Female pin</v>
+        <v>1x 6-POS connector</v>
       </c>
       <c r="W51" t="str">
         <f>IF(NOT(N51=""),N51&amp;"|"&amp;A51,"")</f>
-        <v>538-39-00-0078|6</v>
+        <v>538-39-01-2060|1</v>
       </c>
       <c r="X51" t="str">
         <f>L51&amp;" "&amp;A51</f>
-        <v>39-00-0078 6</v>
+        <v>39-01-2060 1</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="16.5" thickBot="1">
-      <c r="A52" s="16"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="3"/>
+      <c r="A52" s="18">
+        <v>6</v>
+      </c>
+      <c r="B52" s="26">
+        <v>1</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>267</v>
+      </c>
       <c r="G52" s="3"/>
       <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
+      <c r="I52" s="13">
+        <v>1</v>
+      </c>
+      <c r="J52" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="K52" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="L52" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="M52" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="O52" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="P52" s="6">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="Q52" s="6">
+        <f>O52*A52</f>
+        <v>0.96</v>
+      </c>
+      <c r="R52" s="6">
+        <f>P52*A52</f>
+        <v>1.0859999999999999</v>
+      </c>
       <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
-      <c r="U52" s="4"/>
+      <c r="T52" s="4" t="str">
+        <f>IF(NOT(M52=""),A52&amp;","&amp;M52,"")</f>
+        <v>6,WM9154-ND</v>
+      </c>
+      <c r="U52" s="4" t="str">
+        <f>IF(NOT(M52=""),B52&amp;","&amp;M52,"")</f>
+        <v>1,WM9154-ND</v>
+      </c>
+      <c r="V52" t="str">
+        <f>A52&amp;"x "&amp;E52</f>
+        <v>6x Female pin</v>
+      </c>
+      <c r="W52" t="str">
+        <f>IF(NOT(N52=""),N52&amp;"|"&amp;A52,"")</f>
+        <v>538-39-00-0078|6</v>
+      </c>
+      <c r="X52" t="str">
+        <f>L52&amp;" "&amp;A52</f>
+        <v>39-00-0078 6</v>
+      </c>
     </row>
     <row r="53" spans="1:24" ht="16.5" thickBot="1">
       <c r="A53" s="16"/>
       <c r="B53" s="26"/>
-      <c r="C53" s="12" t="s">
-        <v>304</v>
-      </c>
+      <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="13"/>
       <c r="F53" s="3"/>
@@ -5684,98 +5753,48 @@
       <c r="U53" s="4"/>
     </row>
     <row r="54" spans="1:24" ht="16.5" thickBot="1">
-      <c r="A54" s="18">
-        <v>1</v>
-      </c>
-      <c r="B54" s="26">
-        <v>1</v>
-      </c>
-      <c r="C54" s="36" t="s">
-        <v>265</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>272</v>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="D54" s="12"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="13"/>
-      <c r="I54" s="13">
-        <v>1</v>
-      </c>
-      <c r="J54" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="K54" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="L54" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="M54" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="O54" s="6">
-        <v>0.33</v>
-      </c>
-      <c r="P54" s="6">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="Q54" s="6">
-        <f>O54*A54</f>
-        <v>0.33</v>
-      </c>
-      <c r="R54" s="6">
-        <f>P54*A54</f>
-        <v>0.38200000000000001</v>
-      </c>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
       <c r="S54" s="4"/>
-      <c r="T54" s="4" t="str">
-        <f>IF(NOT(M54=""),A54&amp;","&amp;M54,"")</f>
-        <v>1,WM3702-ND</v>
-      </c>
-      <c r="U54" s="4" t="str">
-        <f>IF(NOT(M54=""),B54&amp;","&amp;M54,"")</f>
-        <v>1,WM3702-ND</v>
-      </c>
-      <c r="V54" t="str">
-        <f>A54&amp;"x "&amp;E54</f>
-        <v>1x 6-POS connector</v>
-      </c>
-      <c r="W54" t="str">
-        <f>IF(NOT(N54=""),N54&amp;"|"&amp;A54,"")</f>
-        <v>538-39-01-2060|1</v>
-      </c>
-      <c r="X54" t="str">
-        <f>L54&amp;" "&amp;A54</f>
-        <v>39-01-2060 1</v>
-      </c>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
     </row>
     <row r="55" spans="1:24" ht="16.5" thickBot="1">
       <c r="A55" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B55" s="26">
         <v>1</v>
       </c>
       <c r="C55" s="36" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>144</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="13"/>
@@ -5789,120 +5808,195 @@
         <v>138</v>
       </c>
       <c r="L55" s="13" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M55" s="13" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="O55" s="6">
-        <v>0.16</v>
+        <v>0.33</v>
       </c>
       <c r="P55" s="6">
-        <v>0.18099999999999999</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="Q55" s="6">
         <f>O55*A55</f>
-        <v>0.96</v>
+        <v>0.33</v>
       </c>
       <c r="R55" s="6">
         <f>P55*A55</f>
-        <v>1.0859999999999999</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="S55" s="4"/>
       <c r="T55" s="4" t="str">
         <f>IF(NOT(M55=""),A55&amp;","&amp;M55,"")</f>
-        <v>6,WM9154-ND</v>
+        <v>1,WM3702-ND</v>
       </c>
       <c r="U55" s="4" t="str">
         <f>IF(NOT(M55=""),B55&amp;","&amp;M55,"")</f>
-        <v>1,WM9154-ND</v>
+        <v>1,WM3702-ND</v>
       </c>
       <c r="V55" t="str">
         <f>A55&amp;"x "&amp;E55</f>
-        <v>6x Female pin</v>
+        <v>1x 6-POS connector</v>
       </c>
       <c r="W55" t="str">
         <f>IF(NOT(N55=""),N55&amp;"|"&amp;A55,"")</f>
-        <v>538-39-00-0078|6</v>
+        <v>538-39-01-2060|1</v>
       </c>
       <c r="X55" t="str">
         <f>L55&amp;" "&amp;A55</f>
-        <v>39-00-0078 6</v>
+        <v>39-01-2060 1</v>
       </c>
     </row>
     <row r="56" spans="1:24" ht="16.5" thickBot="1">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
+      <c r="A56" s="18">
+        <v>6</v>
+      </c>
+      <c r="B56" s="26">
+        <v>1</v>
+      </c>
+      <c r="C56" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>267</v>
+      </c>
       <c r="G56" s="3"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="38" t="s">
+      <c r="H56" s="13"/>
+      <c r="I56" s="13">
+        <v>1</v>
+      </c>
+      <c r="J56" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="K56" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="L56" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="M56" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="O56" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="P56" s="6">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="Q56" s="6">
+        <f>O56*A56</f>
+        <v>0.96</v>
+      </c>
+      <c r="R56" s="6">
+        <f>P56*A56</f>
+        <v>1.0859999999999999</v>
+      </c>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4" t="str">
+        <f>IF(NOT(M56=""),A56&amp;","&amp;M56,"")</f>
+        <v>6,WM9154-ND</v>
+      </c>
+      <c r="U56" s="4" t="str">
+        <f>IF(NOT(M56=""),B56&amp;","&amp;M56,"")</f>
+        <v>1,WM9154-ND</v>
+      </c>
+      <c r="V56" t="str">
+        <f>A56&amp;"x "&amp;E56</f>
+        <v>6x Female pin</v>
+      </c>
+      <c r="W56" t="str">
+        <f>IF(NOT(N56=""),N56&amp;"|"&amp;A56,"")</f>
+        <v>538-39-00-0078|6</v>
+      </c>
+      <c r="X56" t="str">
+        <f>L56&amp;" "&amp;A56</f>
+        <v>39-00-0078 6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" ht="16.5" thickBot="1">
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="M56" s="39"/>
-      <c r="N56" s="33"/>
-      <c r="O56" s="1" t="s">
+      <c r="M57" s="39"/>
+      <c r="N57" s="33"/>
+      <c r="O57" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="11">
-        <f>SUM(Q3:Q51)</f>
-        <v>97.03</v>
-      </c>
-      <c r="R56" s="11">
-        <f>SUM(R3:R51)</f>
-        <v>115.14099999999999</v>
-      </c>
-      <c r="S56" s="10" t="s">
+      <c r="P57" s="1"/>
+      <c r="Q57" s="11">
+        <f>SUM(Q3:Q52)</f>
+        <v>97.08</v>
+      </c>
+      <c r="R57" s="11">
+        <f>SUM(R3:R52)</f>
+        <v>115.021</v>
+      </c>
+      <c r="S57" s="10" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24">
-      <c r="C60" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="61" spans="1:24">
       <c r="C61" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
     </row>
     <row r="62" spans="1:24">
       <c r="C62" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="63" spans="1:24">
       <c r="C63" t="s">
-        <v>309</v>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
+      <c r="C64" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="L57:M57"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="M6" r:id="rId1" display="478-1910-ND" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="M13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="M17" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="M30" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="M35" r:id="rId5" display="985-1047-1-ND" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="M36" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="M44" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="M14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="M18" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M31" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="M36" r:id="rId5" display="985-1047-1-ND" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="M37" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="M45" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="M3" r:id="rId8" display="478-1842-ND" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="M7" r:id="rId9" display="445-5312-ND" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="M8" r:id="rId10" display="399-4148-ND" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="M37" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="M38" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="27" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId12"/>

--- a/m50,m40,m60 Pnp/Rev 1.4/BOM-speeduino v0.4.3 compatible PCB for m50tu rev1.4.xlsx
+++ b/m50,m40,m60 Pnp/Rev 1.4/BOM-speeduino v0.4.3 compatible PCB for m50tu rev1.4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kemppain\Documents\GitHub\Speeduino-M5x-PCBs\m50,m40,m60 Pnp\Rev 1.4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\GitHub\Speeduino-M5x-PCBs\m50,m40,m60 Pnp\Rev 1.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F17C2B-9195-4519-ABEA-4D07C7564B50}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3A7A89-81ED-401C-A4D2-F829192403AD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6450" yWindow="735" windowWidth="31680" windowHeight="13380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="29655" windowHeight="12540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Component List" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="316">
   <si>
     <t>Value</t>
   </si>
@@ -1205,18 +1205,6 @@
   </si>
   <si>
     <t>Hardware for the optional connector</t>
-  </si>
-  <si>
-    <t>HEADER 4P MINIFIT</t>
-  </si>
-  <si>
-    <t>39-30-0040</t>
-  </si>
-  <si>
-    <t>WM21352-ND</t>
-  </si>
-  <si>
-    <t>538-39-30-0040</t>
   </si>
   <si>
     <r>
@@ -1754,14 +1742,14 @@
     <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2160,8 +2148,8 @@
   </sheetPr>
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="113" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2692,7 +2680,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>193</v>
@@ -2847,14 +2835,14 @@
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>12</v>
@@ -2866,13 +2854,13 @@
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="N10" s="40" t="s">
-        <v>319</v>
+        <v>314</v>
+      </c>
+      <c r="N10" s="38" t="s">
+        <v>315</v>
       </c>
       <c r="O10" s="5">
         <v>0.3</v>
@@ -3662,10 +3650,10 @@
         <v>82</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -3679,48 +3667,48 @@
         <v>139</v>
       </c>
       <c r="L22" s="27" t="s">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="M22" s="30" t="s">
-        <v>306</v>
+        <v>260</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>307</v>
+        <v>259</v>
       </c>
       <c r="O22" s="6">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="P22" s="28">
-        <v>0.89100000000000001</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="Q22" s="6">
         <f>O22*A22</f>
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="R22" s="6">
         <f t="shared" si="12"/>
-        <v>0.89100000000000001</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="S22" s="4"/>
       <c r="T22" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>1,WM21352-ND</v>
+        <v>1,WM1353-ND</v>
       </c>
       <c r="U22" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>4,WM21352-ND</v>
+        <v>4,WM1353-ND</v>
       </c>
       <c r="V22" t="str">
         <f t="shared" si="15"/>
-        <v>1x 4 POS Header</v>
+        <v>1x 6 POS Header</v>
       </c>
       <c r="W22" t="str">
         <f t="shared" si="16"/>
-        <v>538-39-30-0040|1</v>
+        <v>538-39-30-1060|1</v>
       </c>
       <c r="X22" t="str">
         <f t="shared" si="17"/>
-        <v>39-30-0040 1</v>
+        <v>39-30-1060 1</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="16.5" thickBot="1">
@@ -3924,7 +3912,7 @@
         <v>6</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>107</v>
@@ -4349,7 +4337,7 @@
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="37" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="3"/>
@@ -4380,7 +4368,7 @@
         <v>13</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>196</v>
@@ -4768,7 +4756,7 @@
         <v>8</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D38" s="22" t="s">
         <v>112</v>
@@ -5939,10 +5927,10 @@
       <c r="I57" s="8"/>
       <c r="J57" s="4"/>
       <c r="K57" s="8"/>
-      <c r="L57" s="38" t="s">
+      <c r="L57" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="M57" s="39"/>
+      <c r="M57" s="40"/>
       <c r="N57" s="33"/>
       <c r="O57" s="1" t="s">
         <v>68</v>
@@ -5950,11 +5938,11 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="11">
         <f>SUM(Q3:Q52)</f>
-        <v>97.08</v>
+        <v>97.07</v>
       </c>
       <c r="R57" s="11">
         <f>SUM(R3:R52)</f>
-        <v>115.021</v>
+        <v>115.012</v>
       </c>
       <c r="S57" s="10" t="s">
         <v>69</v>
@@ -5977,7 +5965,7 @@
     </row>
     <row r="64" spans="1:24">
       <c r="C64" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/m50,m40,m60 Pnp/Rev 1.4/BOM-speeduino v0.4.3 compatible PCB for m50tu rev1.4.xlsx
+++ b/m50,m40,m60 Pnp/Rev 1.4/BOM-speeduino v0.4.3 compatible PCB for m50tu rev1.4.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\GitHub\Speeduino-M5x-PCBs\m50,m40,m60 Pnp\Rev 1.4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pasi\Documents\GitHub\Speeduino-M5x-PCBs\m50,m40,m60 Pnp\Rev 1.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F24393-D5AC-4F7C-A8DA-426F8753B116}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92D9FA5-94BC-4636-870E-4F6621A3CA70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="1125" windowWidth="23475" windowHeight="12540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Component List" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1619,60 +1619,60 @@
     </xf>
   </cellXfs>
   <cellStyles count="54">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2014,8 +2014,8 @@
   </sheetPr>
   <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="K19" zoomScale="113" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2031,6 +2031,7 @@
     <col min="16" max="16" width="27.375" customWidth="1"/>
     <col min="17" max="17" width="28" customWidth="1"/>
     <col min="18" max="18" width="22.375" customWidth="1"/>
+    <col min="19" max="19" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="26.25" thickBot="1">
@@ -2106,12 +2107,8 @@
       <c r="N2" s="3"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4" t="str">
-        <f>IF(NOT(I2=""),A2&amp;","&amp;I2,"")</f>
+        <f t="shared" ref="P2:P29" si="0">IF(NOT(I2=""),A2&amp;","&amp;I2,"")</f>
         <v/>
-      </c>
-      <c r="Q2" t="str">
-        <f>A2&amp;"x "&amp;C2</f>
-        <v xml:space="preserve">x </v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="16.5" thickBot="1">
@@ -2151,28 +2148,28 @@
         <v>1.7</v>
       </c>
       <c r="M3" s="6">
-        <f>K3*A3</f>
+        <f t="shared" ref="M3:M11" si="1">K3*A3</f>
         <v>1.7</v>
       </c>
       <c r="N3" s="6">
-        <f>L3*A3</f>
+        <f t="shared" ref="N3:N11" si="2">L3*A3</f>
         <v>1.7</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4" t="str">
-        <f>IF(NOT(I3=""),A3&amp;","&amp;I3,"")</f>
+        <f t="shared" si="0"/>
         <v>1,399-3654-ND</v>
       </c>
       <c r="Q3" t="str">
-        <f>"Capacitor - " &amp;A3&amp;"x "&amp;C3</f>
+        <f t="shared" ref="Q3:Q11" si="3">"Capacitor - " &amp;A3&amp;"x "&amp;C3</f>
         <v>Capacitor - 1x 10uF</v>
       </c>
       <c r="R3" t="str">
-        <f>IF(NOT(J3=""),J3&amp;"|"&amp;A3,"")</f>
+        <f t="shared" ref="R3:R29" si="4">IF(NOT(J3=""),J3&amp;"|"&amp;A3,"")</f>
         <v>80-T356G106K035AT|1</v>
       </c>
       <c r="S3" t="str">
-        <f>H3&amp;" "&amp;A3</f>
+        <f t="shared" ref="S3:S29" si="5">H3&amp;" "&amp;A3</f>
         <v>T356G106K035AT 1</v>
       </c>
     </row>
@@ -2213,28 +2210,28 @@
         <v>0.66</v>
       </c>
       <c r="M4" s="6">
-        <f>K4*A4</f>
+        <f t="shared" si="1"/>
         <v>3.3000000000000003</v>
       </c>
       <c r="N4" s="6">
-        <f>L4*A4</f>
+        <f t="shared" si="2"/>
         <v>3.3000000000000003</v>
       </c>
       <c r="O4" s="4"/>
       <c r="P4" s="4" t="str">
-        <f>IF(NOT(I4=""),A4&amp;","&amp;I4,"")</f>
+        <f t="shared" si="0"/>
         <v>5,BC2678CT-ND</v>
       </c>
       <c r="Q4" t="str">
-        <f>"Capacitor - " &amp;A4&amp;"x "&amp;C4</f>
+        <f t="shared" si="3"/>
         <v>Capacitor - 5x 0.22uF</v>
       </c>
       <c r="R4" t="str">
-        <f>IF(NOT(J4=""),J4&amp;"|"&amp;A4,"")</f>
+        <f t="shared" si="4"/>
         <v>594-K224K20X7RF5UH5|5</v>
       </c>
       <c r="S4" t="str">
-        <f>H4&amp;" "&amp;A4</f>
+        <f t="shared" si="5"/>
         <v>K224K20X7RF5UH5 5</v>
       </c>
     </row>
@@ -2275,28 +2272,28 @@
         <v>0.32</v>
       </c>
       <c r="M5" s="6">
-        <f>K5*A5</f>
+        <f t="shared" si="1"/>
         <v>2.2400000000000002</v>
       </c>
       <c r="N5" s="6">
-        <f>L5*A5</f>
+        <f t="shared" si="2"/>
         <v>2.2400000000000002</v>
       </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4" t="str">
-        <f>IF(NOT(I5=""),A5&amp;","&amp;I5,"")</f>
+        <f t="shared" si="0"/>
         <v>7,399-9879-1-ND</v>
       </c>
       <c r="Q5" t="str">
-        <f>"Capacitor - " &amp;A5&amp;"x "&amp;C5</f>
+        <f t="shared" si="3"/>
         <v>Capacitor - 7x 0.1uF / 100nF</v>
       </c>
       <c r="R5" t="str">
-        <f>IF(NOT(J5=""),J5&amp;"|"&amp;A5,"")</f>
+        <f t="shared" si="4"/>
         <v>80-C322C104M5R-TR|7</v>
       </c>
       <c r="S5" t="str">
-        <f>H5&amp;" "&amp;A5</f>
+        <f t="shared" si="5"/>
         <v>C322C104M5R5TA7301 7</v>
       </c>
     </row>
@@ -2337,34 +2334,34 @@
         <v>1.57</v>
       </c>
       <c r="M6" s="6">
-        <f>K6*A6</f>
+        <f t="shared" si="1"/>
         <v>1.57</v>
       </c>
       <c r="N6" s="6">
-        <f>L6*A6</f>
+        <f t="shared" si="2"/>
         <v>1.57</v>
       </c>
       <c r="O6" s="4"/>
       <c r="P6" s="4" t="str">
-        <f>IF(NOT(I6=""),A6&amp;","&amp;I6,"")</f>
+        <f t="shared" si="0"/>
         <v>1,399-3652-ND</v>
       </c>
       <c r="Q6" t="str">
-        <f>"Capacitor - " &amp;A6&amp;"x "&amp;C6</f>
+        <f t="shared" si="3"/>
         <v>Capacitor - 1x 47uF</v>
       </c>
       <c r="R6" t="str">
-        <f>IF(NOT(J6=""),J6&amp;"|"&amp;A6,"")</f>
+        <f t="shared" si="4"/>
         <v>80-T356F476K6AT|1</v>
       </c>
       <c r="S6" t="str">
-        <f>H6&amp;" "&amp;A6</f>
+        <f t="shared" si="5"/>
         <v>T356F476K006AT 1</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="16.5" thickBot="1">
       <c r="A7" s="17">
-        <f t="shared" ref="A7:A10" si="0">LEN(B7)-LEN(SUBSTITUTE(B7,",",""))+1</f>
+        <f t="shared" ref="A7:A10" si="6">LEN(B7)-LEN(SUBSTITUTE(B7,",",""))+1</f>
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2399,34 +2396,34 @@
         <v>0.43</v>
       </c>
       <c r="M7" s="6">
-        <f>K7*A7</f>
+        <f t="shared" si="1"/>
         <v>1.24</v>
       </c>
       <c r="N7" s="6">
-        <f>L7*A7</f>
+        <f t="shared" si="2"/>
         <v>0.86</v>
       </c>
       <c r="O7" s="4"/>
       <c r="P7" s="4" t="str">
-        <f>IF(NOT(I7=""),A7&amp;","&amp;I7,"")</f>
+        <f t="shared" si="0"/>
         <v>2,478-5120-ND</v>
       </c>
       <c r="Q7" t="str">
-        <f>"Capacitor - " &amp;A7&amp;"x "&amp;C7</f>
+        <f t="shared" si="3"/>
         <v>Capacitor - 2x 0.33uF</v>
       </c>
       <c r="R7" t="str">
-        <f>IF(NOT(J7=""),J7&amp;"|"&amp;A7,"")</f>
+        <f t="shared" si="4"/>
         <v>581-AR215F334K4R|2</v>
       </c>
       <c r="S7" t="str">
-        <f>H7&amp;" "&amp;A7</f>
+        <f t="shared" si="5"/>
         <v>AR215F334K4R 2</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="16.5" thickBot="1">
       <c r="A8" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -2461,34 +2458,34 @@
         <v>0.24</v>
       </c>
       <c r="M8" s="6">
-        <f>K8*A8</f>
+        <f t="shared" si="1"/>
         <v>0.72</v>
       </c>
       <c r="N8" s="6">
-        <f>L8*A8</f>
+        <f t="shared" si="2"/>
         <v>0.72</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4" t="str">
-        <f>IF(NOT(I8=""),A8&amp;","&amp;I8,"")</f>
+        <f t="shared" si="0"/>
         <v>3,399-4206-ND</v>
       </c>
       <c r="Q8" t="str">
-        <f>"Capacitor - " &amp;A8&amp;"x "&amp;C8</f>
+        <f t="shared" si="3"/>
         <v>Capacitor - 3x 0.01uF</v>
       </c>
       <c r="R8" t="str">
-        <f>IF(NOT(J8=""),J8&amp;"|"&amp;A8,"")</f>
+        <f t="shared" si="4"/>
         <v>80-C317C103K5R|3</v>
       </c>
       <c r="S8" t="str">
-        <f>H8&amp;" "&amp;A8</f>
+        <f t="shared" si="5"/>
         <v>C317C103K5R5TA 3</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="16.5" thickBot="1">
       <c r="A9" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2523,34 +2520,34 @@
         <v>0.66</v>
       </c>
       <c r="M9" s="6">
-        <f>K9*A9</f>
+        <f t="shared" si="1"/>
         <v>2.64</v>
       </c>
       <c r="N9" s="6">
-        <f>L9*A9</f>
+        <f t="shared" si="2"/>
         <v>2.64</v>
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4" t="str">
-        <f>IF(NOT(I9=""),A9&amp;","&amp;I9,"")</f>
+        <f t="shared" si="0"/>
         <v>4,399-4390-ND</v>
       </c>
       <c r="Q9" t="str">
-        <f>"Capacitor - " &amp;A9&amp;"x "&amp;C9</f>
+        <f t="shared" si="3"/>
         <v>Capacitor - 4x 1uF</v>
       </c>
       <c r="R9" t="str">
-        <f>IF(NOT(J9=""),J9&amp;"|"&amp;A9,"")</f>
+        <f t="shared" si="4"/>
         <v>80-C330C105M5U|4</v>
       </c>
       <c r="S9" t="str">
-        <f>H9&amp;" "&amp;A9</f>
+        <f t="shared" si="5"/>
         <v>C330C105M5U5TA 4</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="16.5" thickBot="1">
       <c r="A10" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -2585,28 +2582,28 @@
         <v>0.13</v>
       </c>
       <c r="M10" s="6">
-        <f>K10*A10</f>
+        <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
       <c r="N10" s="6">
-        <f>L10*A10</f>
+        <f t="shared" si="2"/>
         <v>0.13</v>
       </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4" t="str">
-        <f>IF(NOT(I10=""),A10&amp;","&amp;I10,"")</f>
+        <f t="shared" si="0"/>
         <v>1,478-11030-1-ND</v>
       </c>
       <c r="Q10" t="str">
-        <f>"Capacitor - " &amp;A10&amp;"x "&amp;C10</f>
+        <f t="shared" si="3"/>
         <v>Capacitor - 1x 1nF</v>
       </c>
       <c r="R10" t="str">
-        <f>IF(NOT(J10=""),J10&amp;"|"&amp;A10,"")</f>
+        <f t="shared" si="4"/>
         <v>581-SR211C102KARTR1|1</v>
       </c>
       <c r="S10" t="str">
-        <f>H10&amp;" "&amp;A10</f>
+        <f t="shared" si="5"/>
         <v>SR211C102KARTR1 1</v>
       </c>
     </row>
@@ -2647,28 +2644,28 @@
         <v>0.25</v>
       </c>
       <c r="M11" s="6">
-        <f>K11*A11</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="N11" s="6">
-        <f>L11*A11</f>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="O11" s="4"/>
       <c r="P11" s="4" t="str">
-        <f>IF(NOT(I11=""),A11&amp;","&amp;I11,"")</f>
+        <f t="shared" si="0"/>
         <v>1,399-4243-ND</v>
       </c>
       <c r="Q11" t="str">
-        <f>"Capacitor - " &amp;A11&amp;"x "&amp;C11</f>
+        <f t="shared" si="3"/>
         <v>Capacitor - 1x 4.7nF</v>
       </c>
       <c r="R11" t="str">
-        <f>IF(NOT(J11=""),J11&amp;"|"&amp;A11,"")</f>
+        <f t="shared" si="4"/>
         <v>80-C317C472K1R|1</v>
       </c>
       <c r="S11" t="str">
-        <f>H11&amp;" "&amp;A11</f>
+        <f t="shared" si="5"/>
         <v>C317C472K1R5TA 1</v>
       </c>
     </row>
@@ -2689,15 +2686,15 @@
       <c r="N12" s="6"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4" t="str">
-        <f>IF(NOT(I12=""),A12&amp;","&amp;I12,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="R12" t="str">
-        <f>IF(NOT(J12=""),J12&amp;"|"&amp;A12,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S12" t="str">
-        <f>H12&amp;" "&amp;A12</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -2747,7 +2744,7 @@
       </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4" t="str">
-        <f>IF(NOT(I13=""),A13&amp;","&amp;I13,"")</f>
+        <f t="shared" si="0"/>
         <v>2,1N5919BGOS-ND</v>
       </c>
       <c r="Q13" t="str">
@@ -2755,11 +2752,11 @@
         <v>Diode - 2x 1N5919BG Zener</v>
       </c>
       <c r="R13" t="str">
-        <f>IF(NOT(J13=""),J13&amp;"|"&amp;A13,"")</f>
+        <f t="shared" si="4"/>
         <v>863-1N5919BRLG|2</v>
       </c>
       <c r="S13" t="str">
-        <f>H13&amp;" "&amp;A13</f>
+        <f t="shared" si="5"/>
         <v>1N5919BG 2</v>
       </c>
     </row>
@@ -2809,7 +2806,7 @@
       </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4" t="str">
-        <f>IF(NOT(I14=""),A14&amp;","&amp;I14,"")</f>
+        <f t="shared" si="0"/>
         <v>3,1N5818-TPCT-ND</v>
       </c>
       <c r="Q14" t="str">
@@ -2817,11 +2814,11 @@
         <v>Diode - 3x 1N5818-TP Schottky</v>
       </c>
       <c r="R14" t="str">
-        <f>IF(NOT(J14=""),J14&amp;"|"&amp;A14,"")</f>
+        <f t="shared" si="4"/>
         <v>833-1N5818-TP|3</v>
       </c>
       <c r="S14" t="str">
-        <f>H14&amp;" "&amp;A14</f>
+        <f t="shared" si="5"/>
         <v>1N5818-TP 3</v>
       </c>
     </row>
@@ -2869,7 +2866,7 @@
       </c>
       <c r="O15" s="4"/>
       <c r="P15" s="4" t="str">
-        <f>IF(NOT(I15=""),A15&amp;","&amp;I15,"")</f>
+        <f t="shared" si="0"/>
         <v>6,160-1139-ND</v>
       </c>
       <c r="Q15" t="str">
@@ -2877,11 +2874,11 @@
         <v>Diode - 6x LED-Red</v>
       </c>
       <c r="R15" t="str">
-        <f>IF(NOT(J15=""),J15&amp;"|"&amp;A15,"")</f>
+        <f t="shared" si="4"/>
         <v>859-LTL-4221N|6</v>
       </c>
       <c r="S15" t="str">
-        <f>H15&amp;" "&amp;A15</f>
+        <f t="shared" si="5"/>
         <v>LTL-4221N 6</v>
       </c>
     </row>
@@ -2931,7 +2928,7 @@
       </c>
       <c r="O16" s="4"/>
       <c r="P16" s="4" t="str">
-        <f>IF(NOT(I16=""),A16&amp;","&amp;I16,"")</f>
+        <f t="shared" si="0"/>
         <v>5,1N4004-TPMSCT-ND</v>
       </c>
       <c r="Q16" t="str">
@@ -2939,11 +2936,11 @@
         <v>Diode - 5x 1N4004</v>
       </c>
       <c r="R16" t="str">
-        <f>IF(NOT(J16=""),J16&amp;"|"&amp;A16,"")</f>
+        <f t="shared" si="4"/>
         <v>833-1N4004-TP|5</v>
       </c>
       <c r="S16" t="str">
-        <f>H16&amp;" "&amp;A16</f>
+        <f t="shared" si="5"/>
         <v>1N4004-TP 5</v>
       </c>
     </row>
@@ -2964,19 +2961,15 @@
       <c r="N17" s="6"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4" t="str">
-        <f>IF(NOT(I17=""),A17&amp;","&amp;I17,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q17" t="str">
-        <f>A17&amp;"x "&amp;C17</f>
-        <v xml:space="preserve">x </v>
-      </c>
       <c r="R17" t="str">
-        <f>IF(NOT(J17=""),J17&amp;"|"&amp;A17,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S17" t="str">
-        <f>H17&amp;" "&amp;A17</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -3025,19 +3018,19 @@
       </c>
       <c r="O18" s="4"/>
       <c r="P18" s="4" t="str">
-        <f>IF(NOT(I18=""),A18&amp;","&amp;I18,"")</f>
+        <f t="shared" si="0"/>
         <v>1,P7307-ND</v>
       </c>
       <c r="Q18" t="str">
-        <f>A18&amp;"x "&amp;C18</f>
+        <f t="shared" ref="Q17:Q29" si="7">A18&amp;"x "&amp;C18</f>
         <v>1x Surge Protection</v>
       </c>
       <c r="R18" t="str">
-        <f>IF(NOT(J18=""),J18&amp;"|"&amp;A18,"")</f>
+        <f t="shared" si="4"/>
         <v>667-ERZ-V14D220|1</v>
       </c>
       <c r="S18" t="str">
-        <f>H18&amp;" "&amp;A18</f>
+        <f t="shared" si="5"/>
         <v>ERZ-V14D220 1</v>
       </c>
     </row>
@@ -3058,19 +3051,15 @@
       <c r="N19" s="6"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4" t="str">
-        <f>IF(NOT(I19=""),A19&amp;","&amp;I19,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q19" t="str">
-        <f>A19&amp;"x "&amp;C19</f>
-        <v xml:space="preserve">x </v>
-      </c>
       <c r="R19" t="str">
-        <f>IF(NOT(J19=""),J19&amp;"|"&amp;A19,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S19" t="str">
-        <f>H19&amp;" "&amp;A19</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -3119,19 +3108,19 @@
         <v>154</v>
       </c>
       <c r="P20" s="4" t="str">
-        <f>IF(NOT(I20=""),A20&amp;","&amp;I20,"")</f>
+        <f t="shared" si="0"/>
         <v>4,S1012EC-40-ND</v>
       </c>
       <c r="Q20" t="str">
-        <f>A20&amp;"x "&amp;C20</f>
+        <f t="shared" si="7"/>
         <v>4x 40 POS 0.100 Pin Header</v>
       </c>
       <c r="R20" t="str">
-        <f>IF(NOT(J20=""),J20&amp;"|"&amp;A20,"")</f>
+        <f t="shared" si="4"/>
         <v>571-41037410|4</v>
       </c>
       <c r="S20" t="str">
-        <f>H20&amp;" "&amp;A20</f>
+        <f t="shared" si="5"/>
         <v>PREC040SAAN-RC.. 4</v>
       </c>
     </row>
@@ -3178,19 +3167,19 @@
       </c>
       <c r="O21" s="4"/>
       <c r="P21" s="4" t="str">
-        <f>IF(NOT(I21=""),A21&amp;","&amp;I21,"")</f>
+        <f t="shared" si="0"/>
         <v>1,WM1353-ND</v>
       </c>
       <c r="Q21" t="str">
-        <f>A21&amp;"x "&amp;C21</f>
+        <f t="shared" si="7"/>
         <v>1x 6 POS Header</v>
       </c>
       <c r="R21" t="str">
-        <f>IF(NOT(J21=""),J21&amp;"|"&amp;A21,"")</f>
+        <f t="shared" si="4"/>
         <v>538-39-30-1060|1</v>
       </c>
       <c r="S21" t="str">
-        <f>H21&amp;" "&amp;A21</f>
+        <f t="shared" si="5"/>
         <v>39-30-1060 1</v>
       </c>
     </row>
@@ -3237,19 +3226,19 @@
       </c>
       <c r="O22" s="4"/>
       <c r="P22" s="4" t="str">
-        <f>IF(NOT(I22=""),A22&amp;","&amp;I22,"")</f>
+        <f t="shared" si="0"/>
         <v>1,WM1353-ND</v>
       </c>
       <c r="Q22" t="str">
-        <f>A22&amp;"x "&amp;C22</f>
+        <f t="shared" si="7"/>
         <v>1x 6 POS Header</v>
       </c>
       <c r="R22" t="str">
-        <f>IF(NOT(J22=""),J22&amp;"|"&amp;A22,"")</f>
+        <f t="shared" si="4"/>
         <v>538-39-30-1060|1</v>
       </c>
       <c r="S22" t="str">
-        <f>H22&amp;" "&amp;A22</f>
+        <f t="shared" si="5"/>
         <v>39-30-1060 1</v>
       </c>
     </row>
@@ -3296,19 +3285,19 @@
       </c>
       <c r="O23" s="4"/>
       <c r="P23" s="4" t="str">
-        <f>IF(NOT(I23=""),A23&amp;","&amp;I23,"")</f>
+        <f t="shared" si="0"/>
         <v>1,SAM1213-04-ND</v>
       </c>
       <c r="Q23" t="str">
-        <f>A23&amp;"x "&amp;C23</f>
+        <f t="shared" si="7"/>
         <v>1x 4 POS Header</v>
       </c>
       <c r="R23" t="str">
-        <f>IF(NOT(J23=""),J23&amp;"|"&amp;A23,"")</f>
+        <f t="shared" si="4"/>
         <v>200-SSW10401TS|1</v>
       </c>
       <c r="S23" t="str">
-        <f>H23&amp;" "&amp;A23</f>
+        <f t="shared" si="5"/>
         <v>SSW-104-01-T-S 1</v>
       </c>
     </row>
@@ -3355,19 +3344,19 @@
       </c>
       <c r="O24" s="4"/>
       <c r="P24" s="4" t="str">
-        <f>IF(NOT(I24=""),A24&amp;","&amp;I24,"")</f>
+        <f t="shared" si="0"/>
         <v>1,SAM1213-02-ND</v>
       </c>
       <c r="Q24" t="str">
-        <f>A24&amp;"x "&amp;C24</f>
+        <f t="shared" si="7"/>
         <v>1x 2 POS Header</v>
       </c>
       <c r="R24" t="str">
-        <f>IF(NOT(J24=""),J24&amp;"|"&amp;A24,"")</f>
+        <f t="shared" si="4"/>
         <v>200-SSW10201TS|1</v>
       </c>
       <c r="S24" t="str">
-        <f>H24&amp;" "&amp;A24</f>
+        <f t="shared" si="5"/>
         <v>SSW-102-01-T-S 1</v>
       </c>
     </row>
@@ -3388,19 +3377,15 @@
       <c r="N25" s="6"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4" t="str">
-        <f>IF(NOT(I25=""),A25&amp;","&amp;I25,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q25" t="str">
-        <f>A25&amp;"x "&amp;C25</f>
-        <v xml:space="preserve">x </v>
-      </c>
       <c r="R25" t="str">
-        <f>IF(NOT(J25=""),J25&amp;"|"&amp;A25,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S25" t="str">
-        <f>H25&amp;" "&amp;A25</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -3450,19 +3435,19 @@
       </c>
       <c r="O26" s="4"/>
       <c r="P26" s="4" t="str">
-        <f>IF(NOT(I26=""),A26&amp;","&amp;I26,"")</f>
+        <f t="shared" si="0"/>
         <v>7,497-5981-5-ND</v>
       </c>
       <c r="Q26" t="str">
-        <f>A26&amp;"x "&amp;C26</f>
+        <f t="shared" si="7"/>
         <v>7x 62A MOSFET N-CH</v>
       </c>
       <c r="R26" t="str">
-        <f>IF(NOT(J26=""),J26&amp;"|"&amp;A26,"")</f>
+        <f t="shared" si="4"/>
         <v>511-STP62NS04Z|7</v>
       </c>
       <c r="S26" t="str">
-        <f>H26&amp;" "&amp;A26</f>
+        <f t="shared" si="5"/>
         <v>STP75NS04Z 7</v>
       </c>
     </row>
@@ -3512,20 +3497,20 @@
       </c>
       <c r="O27" s="4"/>
       <c r="P27" s="4" t="str">
-        <f>IF(NOT(I27=""),A27&amp;","&amp;I27,"")</f>
+        <f t="shared" si="0"/>
         <v>6,ISL9V5036P3-F085-ND</v>
       </c>
       <c r="Q27" t="str">
-        <f>A27&amp;"x "&amp;C27</f>
+        <f t="shared" si="7"/>
         <v>6x Ignition IGBT</v>
       </c>
       <c r="R27" t="str">
-        <f>IF(NOT(J27=""),J27&amp;"|"&amp;A27,"")</f>
+        <f t="shared" si="4"/>
         <v>512-ISL9V5036P3-F085
 |6</v>
       </c>
       <c r="S27" t="str">
-        <f>H27&amp;" "&amp;A27</f>
+        <f t="shared" si="5"/>
         <v>ISL9V5036P3-F085 6</v>
       </c>
     </row>
@@ -3575,20 +3560,20 @@
       </c>
       <c r="O28" s="4"/>
       <c r="P28" s="4" t="str">
-        <f>IF(NOT(I29=""),A28&amp;","&amp;I29,"")</f>
-        <v>1,PN2222AFS-ND</v>
+        <f t="shared" si="0"/>
+        <v>1,PN2907ABUFS-ND</v>
       </c>
       <c r="Q28" t="str">
-        <f>A28&amp;"x "&amp;C28</f>
+        <f t="shared" si="7"/>
         <v>1x PNP transistor</v>
       </c>
       <c r="R28" t="str">
-        <f>IF(NOT(J29=""),J29&amp;"|"&amp;A28,"")</f>
-        <v>512-PN2222ABU|1</v>
+        <f t="shared" si="4"/>
+        <v>512-PN2907ABU|1</v>
       </c>
       <c r="S28" t="str">
-        <f>H29&amp;" "&amp;A28</f>
-        <v>PN2222ABU 1</v>
+        <f t="shared" si="5"/>
+        <v>PN2907ABU 1</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="16.5" thickBot="1">
@@ -3637,20 +3622,20 @@
       </c>
       <c r="O29" s="4"/>
       <c r="P29" s="4" t="str">
-        <f>IF(NOT(I28=""),A29&amp;","&amp;I28,"")</f>
-        <v>1,PN2907ABUFS-ND</v>
+        <f t="shared" si="0"/>
+        <v>1,PN2222AFS-ND</v>
       </c>
       <c r="Q29" t="str">
-        <f>A29&amp;"x "&amp;C29</f>
+        <f t="shared" si="7"/>
         <v>1x NPN transistor</v>
       </c>
       <c r="R29" t="str">
-        <f>IF(NOT(J28=""),J28&amp;"|"&amp;A29,"")</f>
-        <v>512-PN2907ABU|1</v>
+        <f t="shared" si="4"/>
+        <v>512-PN2222ABU|1</v>
       </c>
       <c r="S29" t="str">
-        <f>H28&amp;" "&amp;A29</f>
-        <v>PN2907ABU 1</v>
+        <f t="shared" si="5"/>
+        <v>PN2222ABU 1</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="16.5" thickBot="1">
@@ -3666,22 +3651,11 @@
       <c r="M30" s="3"/>
       <c r="N30" s="6"/>
       <c r="O30" s="4"/>
-      <c r="P30" s="4" t="e">
-        <f>IF(NOT(#REF!=""),A30&amp;","&amp;#REF!,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R30" t="e">
-        <f>IF(NOT(#REF!=""),#REF!&amp;"|"&amp;A30,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S30" t="e">
-        <f>#REF!&amp;" "&amp;A30</f>
-        <v>#REF!</v>
-      </c>
+      <c r="P30" s="4"/>
     </row>
     <row r="31" spans="1:19" ht="16.5" thickBot="1">
       <c r="A31" s="17">
-        <f t="shared" ref="A31:A36" si="1">LEN(B31)-LEN(SUBSTITUTE(B31,",",""))+1</f>
+        <f t="shared" ref="A31:A36" si="8">LEN(B31)-LEN(SUBSTITUTE(B31,",",""))+1</f>
         <v>1</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -3741,7 +3715,7 @@
     </row>
     <row r="32" spans="1:19" ht="26.25" thickBot="1">
       <c r="A32" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="B32" s="33" t="s">
@@ -3764,7 +3738,7 @@
     </row>
     <row r="33" spans="1:19" ht="26.25" thickBot="1">
       <c r="A33" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -3797,34 +3771,34 @@
         <v>0.11</v>
       </c>
       <c r="M33" s="6">
-        <f>K33*A33</f>
+        <f t="shared" ref="M33:M40" si="9">K33*A33</f>
         <v>1.02</v>
       </c>
       <c r="N33" s="6">
-        <f>L33*A33</f>
+        <f t="shared" ref="N33:N40" si="10">L33*A33</f>
         <v>1.87</v>
       </c>
       <c r="O33" s="4"/>
       <c r="P33" s="4" t="str">
-        <f>IF(NOT(I33=""),A33&amp;","&amp;I33,"")</f>
+        <f t="shared" ref="P33:P42" si="11">IF(NOT(I33=""),A33&amp;","&amp;I33,"")</f>
         <v>17,1.00KXBK-ND</v>
       </c>
       <c r="Q33" t="str">
-        <f>"Resistor - " &amp; A33&amp;"x "&amp;C33</f>
+        <f t="shared" ref="Q33:Q40" si="12">"Resistor - " &amp; A33&amp;"x "&amp;C33</f>
         <v>Resistor - 17x 1k</v>
       </c>
       <c r="R33" t="str">
-        <f>IF(NOT(J33=""),J33&amp;"|"&amp;A33,"")</f>
+        <f t="shared" ref="R33:R42" si="13">IF(NOT(J33=""),J33&amp;"|"&amp;A33,"")</f>
         <v>603-MFR-25FBF52-1K|17</v>
       </c>
       <c r="S33" t="str">
-        <f>H33&amp;" "&amp;A33</f>
+        <f t="shared" ref="S33:S42" si="14">H33&amp;" "&amp;A33</f>
         <v>MFR-25FBF52-1K 17</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="16.5" thickBot="1">
       <c r="A34" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="B34" s="11" t="s">
@@ -3857,36 +3831,36 @@
         <v>0.15</v>
       </c>
       <c r="M34" s="6">
-        <f>K34*A34</f>
+        <f t="shared" si="9"/>
         <v>0.66</v>
       </c>
       <c r="N34" s="6">
-        <f>L34*A34</f>
+        <f t="shared" si="10"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="O34" s="11" t="s">
         <v>82</v>
       </c>
       <c r="P34" s="4" t="str">
-        <f>IF(NOT(I34=""),A34&amp;","&amp;I34,"")</f>
+        <f t="shared" si="11"/>
         <v>3,A105963CT-ND</v>
       </c>
       <c r="Q34" t="str">
-        <f>"Resistor - " &amp; A34&amp;"x "&amp;C34</f>
+        <f t="shared" si="12"/>
         <v>Resistor - 3x 680</v>
       </c>
       <c r="R34" t="str">
-        <f>IF(NOT(J34=""),J34&amp;"|"&amp;A34,"")</f>
+        <f t="shared" si="13"/>
         <v>279-LR1F680R|3</v>
       </c>
       <c r="S34" t="str">
-        <f>H34&amp;" "&amp;A34</f>
+        <f t="shared" si="14"/>
         <v>1622545-1 3</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="26.25" thickBot="1">
       <c r="A35" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -3919,34 +3893,34 @@
         <v>0.15</v>
       </c>
       <c r="M35" s="6">
-        <f>K35*A35</f>
+        <f t="shared" si="9"/>
         <v>0.66</v>
       </c>
       <c r="N35" s="6">
-        <f>L35*A35</f>
+        <f t="shared" si="10"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="O35" s="4"/>
       <c r="P35" s="4" t="str">
-        <f>IF(NOT(I35=""),A35&amp;","&amp;I35,"")</f>
+        <f t="shared" si="11"/>
         <v>6,RNF14FTD470RCT-ND</v>
       </c>
       <c r="Q35" t="str">
-        <f>"Resistor - " &amp; A35&amp;"x "&amp;C35</f>
+        <f t="shared" si="12"/>
         <v>Resistor - 6x 470</v>
       </c>
       <c r="R35" t="str">
-        <f>IF(NOT(J35=""),J35&amp;"|"&amp;A35,"")</f>
+        <f t="shared" si="13"/>
         <v>279-LR1F470R|6</v>
       </c>
       <c r="S35" t="str">
-        <f>H35&amp;" "&amp;A35</f>
+        <f t="shared" si="14"/>
         <v>RNF14FTD470R 6</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="26.25" thickBot="1">
       <c r="A36" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3981,28 +3955,28 @@
         <v>0.16</v>
       </c>
       <c r="M36" s="6">
-        <f>K36*A36</f>
+        <f t="shared" si="9"/>
         <v>0.84000000000000008</v>
       </c>
       <c r="N36" s="6">
-        <f>L36*A36</f>
+        <f t="shared" si="10"/>
         <v>0.96</v>
       </c>
       <c r="O36" s="4"/>
       <c r="P36" s="4" t="str">
-        <f>IF(NOT(I36=""),A36&amp;","&amp;I36,"")</f>
+        <f t="shared" si="11"/>
         <v>6,2.49KXBK-ND</v>
       </c>
       <c r="Q36" t="str">
-        <f>"Resistor - " &amp; A36&amp;"x "&amp;C36</f>
+        <f t="shared" si="12"/>
         <v>Resistor - 6x 1% 2.49k</v>
       </c>
       <c r="R36" t="str">
-        <f>IF(NOT(J36=""),J36&amp;"|"&amp;A36,"")</f>
+        <f t="shared" si="13"/>
         <v>603-MFR-25FBF52-2K49|6</v>
       </c>
       <c r="S36" t="str">
-        <f>H36&amp;" "&amp;A36</f>
+        <f t="shared" si="14"/>
         <v>MFR-25FBF52-2K49 6</v>
       </c>
     </row>
@@ -4040,36 +4014,36 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="M37" s="6">
-        <f>K37*A37</f>
+        <f t="shared" si="9"/>
         <v>0.46</v>
       </c>
       <c r="N37" s="6">
-        <f>L37*A37</f>
+        <f t="shared" si="10"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="O37" s="4" t="s">
         <v>81</v>
       </c>
       <c r="P37" s="4" t="str">
-        <f>IF(NOT(I37=""),A37&amp;","&amp;I37,"")</f>
+        <f t="shared" si="11"/>
         <v>1,3.9KADCT-ND</v>
       </c>
       <c r="Q37" t="str">
-        <f>"Resistor - " &amp; A37&amp;"x "&amp;C37</f>
+        <f t="shared" si="12"/>
         <v>Resistor - 1x 0.1% 3.9k</v>
       </c>
       <c r="R37" t="str">
-        <f>IF(NOT(J37=""),J37&amp;"|"&amp;A37,"")</f>
+        <f t="shared" si="13"/>
         <v>279-H83K9BDA|1</v>
       </c>
       <c r="S37" t="str">
-        <f>H37&amp;" "&amp;A37</f>
+        <f t="shared" si="14"/>
         <v>MFP-25BRD52-3K9 1</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="16.5" thickBot="1">
       <c r="A38" s="17">
-        <f t="shared" ref="A38" si="2">LEN(B38)-LEN(SUBSTITUTE(B38,",",""))+1</f>
+        <f t="shared" ref="A38" si="15">LEN(B38)-LEN(SUBSTITUTE(B38,",",""))+1</f>
         <v>10</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -4102,28 +4076,28 @@
         <v>0.1</v>
       </c>
       <c r="M38" s="6">
-        <f>K38*A38</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N38" s="6">
-        <f>L38*A38</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O38" s="4"/>
       <c r="P38" s="4" t="str">
-        <f>IF(NOT(I38=""),A38&amp;","&amp;I38,"")</f>
+        <f t="shared" si="11"/>
         <v>10,100KXBK-ND</v>
       </c>
       <c r="Q38" t="str">
-        <f>"Resistor - " &amp; A38&amp;"x "&amp;C38</f>
+        <f t="shared" si="12"/>
         <v>Resistor - 10x 100k</v>
       </c>
       <c r="R38" t="str">
-        <f>IF(NOT(J38=""),J38&amp;"|"&amp;A38,"")</f>
+        <f t="shared" si="13"/>
         <v>603-FMF-25FTF52100K|10</v>
       </c>
       <c r="S38" t="str">
-        <f>H38&amp;" "&amp;A38</f>
+        <f t="shared" si="14"/>
         <v>MFR-25FBF52-100K 10</v>
       </c>
     </row>
@@ -4162,28 +4136,28 @@
         <v>0.23</v>
       </c>
       <c r="M39" s="6">
-        <f>K39*A39</f>
+        <f t="shared" si="9"/>
         <v>0.81</v>
       </c>
       <c r="N39" s="6">
-        <f>L39*A39</f>
+        <f t="shared" si="10"/>
         <v>0.69000000000000006</v>
       </c>
       <c r="O39" s="4"/>
       <c r="P39" s="4" t="str">
-        <f>IF(NOT(I39=""),A39&amp;","&amp;I39,"")</f>
+        <f t="shared" si="11"/>
         <v>3,160YCT-ND</v>
       </c>
       <c r="Q39" t="str">
-        <f>"Resistor - " &amp; A39&amp;"x "&amp;C39</f>
+        <f t="shared" si="12"/>
         <v>Resistor - 3x 160</v>
       </c>
       <c r="R39" t="str">
-        <f>IF(NOT(J39=""),J39&amp;"|"&amp;A39,"")</f>
+        <f t="shared" si="13"/>
         <v>594-5083NW160R0J|3</v>
       </c>
       <c r="S39" t="str">
-        <f>H39&amp;" "&amp;A39</f>
+        <f t="shared" si="14"/>
         <v>FMP200FRF52-160R 3</v>
       </c>
     </row>
@@ -4218,29 +4192,29 @@
         <v>0.1</v>
       </c>
       <c r="M40" s="6">
-        <f>K40*A40</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N40" s="6">
-        <f>L40*A40</f>
+        <f t="shared" si="10"/>
         <v>0.2</v>
       </c>
       <c r="O40" s="4"/>
       <c r="P40" s="4" t="str">
-        <f>IF(NOT(I40=""),A40&amp;","&amp;I40,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q40" t="str">
-        <f>"Resistor - " &amp; A40&amp;"x "&amp;C40</f>
+        <f t="shared" si="12"/>
         <v>Resistor - 2x 7.5k</v>
       </c>
       <c r="R40" t="str">
-        <f>IF(NOT(J40=""),J40&amp;"|"&amp;A40,"")</f>
+        <f t="shared" si="13"/>
         <v>603-MFR-25FBF52-7K5
 |2</v>
       </c>
       <c r="S40" t="str">
-        <f>H40&amp;" "&amp;A40</f>
+        <f t="shared" si="14"/>
         <v>MFR-25FBF52-7K5 2</v>
       </c>
     </row>
@@ -4261,15 +4235,15 @@
       <c r="N41" s="6"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4" t="str">
-        <f>IF(NOT(I41=""),A41&amp;","&amp;I41,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="R41" t="str">
-        <f>IF(NOT(J41=""),J41&amp;"|"&amp;A41,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="S41" t="str">
-        <f>H41&amp;" "&amp;A41</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -4318,7 +4292,7 @@
       </c>
       <c r="O42" s="4"/>
       <c r="P42" s="4" t="str">
-        <f>IF(NOT(I42=""),A42&amp;","&amp;I42,"")</f>
+        <f t="shared" si="11"/>
         <v>1,LM2940T-5.0/NOPB</v>
       </c>
       <c r="Q42" t="str">
@@ -4326,11 +4300,11 @@
         <v>1x LM2940T-5.0/NOPB</v>
       </c>
       <c r="R42" t="str">
-        <f>IF(NOT(J42=""),J42&amp;"|"&amp;A42,"")</f>
+        <f t="shared" si="13"/>
         <v>926-LM2940T-5.0/NOPB|1</v>
       </c>
       <c r="S42" t="str">
-        <f>H42&amp;" "&amp;A42</f>
+        <f t="shared" si="14"/>
         <v>LM2940T-5.0/NOPB 1</v>
       </c>
     </row>
@@ -4434,7 +4408,7 @@
       </c>
       <c r="O44" s="4"/>
       <c r="P44" s="4" t="str">
-        <f>IF(NOT(I44=""),A44&amp;","&amp;I44,"")</f>
+        <f t="shared" ref="P44:P49" si="16">IF(NOT(I44=""),A44&amp;","&amp;I44,"")</f>
         <v>1,MPXH6115A6U-ND</v>
       </c>
       <c r="Q44" t="str">
@@ -4442,7 +4416,7 @@
         <v>1x Baro sensor</v>
       </c>
       <c r="R44" t="str">
-        <f>IF(NOT(J44=""),J44&amp;"|"&amp;A44,"")</f>
+        <f t="shared" ref="R44:R49" si="17">IF(NOT(J44=""),J44&amp;"|"&amp;A44,"")</f>
         <v>841-MPXH6115A6U|1</v>
       </c>
       <c r="S44" t="str">
@@ -4495,7 +4469,7 @@
       </c>
       <c r="O45" s="4"/>
       <c r="P45" s="4" t="str">
-        <f>IF(NOT(I45=""),A45&amp;","&amp;I45,"")</f>
+        <f t="shared" si="16"/>
         <v>1,MPX4250AP-ND</v>
       </c>
       <c r="Q45" t="str">
@@ -4503,7 +4477,7 @@
         <v>1x 2.5-Bar MAP sensor</v>
       </c>
       <c r="R45" t="str">
-        <f>IF(NOT(J45=""),J45&amp;"|"&amp;A45,"")</f>
+        <f t="shared" si="17"/>
         <v>841-MPX4250AP|1</v>
       </c>
       <c r="S45" t="str">
@@ -4556,7 +4530,7 @@
       </c>
       <c r="O46" s="11"/>
       <c r="P46" s="4" t="str">
-        <f>IF(NOT(I46=""),A46&amp;","&amp;I46,"")</f>
+        <f t="shared" si="16"/>
         <v>2,TC4424EPA-ND</v>
       </c>
       <c r="Q46" t="str">
@@ -4564,7 +4538,7 @@
         <v>2x TC4424EPA</v>
       </c>
       <c r="R46" t="str">
-        <f>IF(NOT(J46=""),J46&amp;"|"&amp;A46,"")</f>
+        <f t="shared" si="17"/>
         <v>579-TC4424EPA|2</v>
       </c>
       <c r="S46" t="str">
@@ -4617,7 +4591,7 @@
       </c>
       <c r="O47" s="4"/>
       <c r="P47" s="4" t="str">
-        <f>IF(NOT(I47=""),A47&amp;","&amp;I47,"")</f>
+        <f t="shared" si="16"/>
         <v>1,F2720-ND</v>
       </c>
       <c r="Q47" t="str">
@@ -4625,7 +4599,7 @@
         <v>1x SP721APP</v>
       </c>
       <c r="R47" t="str">
-        <f>IF(NOT(J47=""),J47&amp;"|"&amp;A47,"")</f>
+        <f t="shared" si="17"/>
         <v>576-SP721APP|1</v>
       </c>
       <c r="S47" t="str">
@@ -4650,11 +4624,11 @@
       <c r="N48" s="6"/>
       <c r="O48" s="9"/>
       <c r="P48" s="4" t="str">
-        <f>IF(NOT(I48=""),A48&amp;","&amp;I48,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R48" t="str">
-        <f>IF(NOT(J48=""),J48&amp;"|"&amp;A48,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -4677,11 +4651,11 @@
       <c r="N49" s="6"/>
       <c r="O49" s="9"/>
       <c r="P49" s="4" t="str">
-        <f>IF(NOT(I49=""),A49&amp;","&amp;I49,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R49" t="str">
-        <f>IF(NOT(J49=""),J49&amp;"|"&amp;A49,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
